--- a/Tables/table_for_params_new_VMU.xlsx
+++ b/Tables/table_for_params_new_VMU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB6CE4D-B809-4232-9E45-1C2A9CF409FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418141DB-BCA4-428C-B9EE-9EE54792188B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3120" windowWidth="17280" windowHeight="8916" xr2:uid="{6ABEF735-ABAC-4CF2-A972-C8BC79EE00CB}"/>
+    <workbookView xWindow="3900" yWindow="2208" windowWidth="17280" windowHeight="8916" xr2:uid="{6ABEF735-ABAC-4CF2-A972-C8BC79EE00CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>name</t>
   </si>
@@ -136,13 +136,7 @@
     <t>UNSIGNED16</t>
   </si>
   <si>
-    <t>PSTED_FLUXCOIL_TEMP</t>
-  </si>
-  <si>
     <t>PSTED_INV_RADIATOR_TEMP</t>
-  </si>
-  <si>
-    <t>0x210810</t>
   </si>
   <si>
     <t>0x210811</t>
@@ -521,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEF9F55-F318-47C4-B8C1-11EB0E54F5F8}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,8 +573,7 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <f>127/100</f>
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>21</v>
@@ -665,10 +658,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>25</v>
@@ -679,16 +669,17 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="E8">
-        <v>40</v>
+      <c r="D8">
+        <f>200/349</f>
+        <v>0.57306590257879653</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>29</v>
@@ -696,36 +687,18 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <f>1/10</f>
-        <v>0.1</v>
+        <v>1000</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10">
-        <v>100</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="1" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Tables/table_for_params_new_VMU.xlsx
+++ b/Tables/table_for_params_new_VMU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418141DB-BCA4-428C-B9EE-9EE54792188B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71FA3D2-33C4-451F-9BE2-C95CD068D7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2208" windowWidth="17280" windowHeight="8916" xr2:uid="{6ABEF735-ABAC-4CF2-A972-C8BC79EE00CB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>name</t>
   </si>
@@ -146,6 +146,36 @@
   </si>
   <si>
     <t>0x210705</t>
+  </si>
+  <si>
+    <t>STEERING_SERVO_CUR_POS_FRONT</t>
+  </si>
+  <si>
+    <t>0x211104</t>
+  </si>
+  <si>
+    <t>parrots</t>
+  </si>
+  <si>
+    <t>STEERING_SERVO_CURRENT_FRONT</t>
+  </si>
+  <si>
+    <t>0x211112</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>0x211204</t>
+  </si>
+  <si>
+    <t>0x211212</t>
+  </si>
+  <si>
+    <t>STEERING_SERVO_CUR_POS_REAR</t>
+  </si>
+  <si>
+    <t>STEERING_SERVO_CURRENT_REAR</t>
   </si>
 </sst>
 </file>
@@ -515,15 +545,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEF9F55-F318-47C4-B8C1-11EB0E54F5F8}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -702,6 +732,62 @@
         <v>32</v>
       </c>
     </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/table_for_params_new_VMU.xlsx
+++ b/Tables/table_for_params_new_VMU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418141DB-BCA4-428C-B9EE-9EE54792188B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA9392B-C439-4BB1-89F6-5161E2CB3D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2208" windowWidth="17280" windowHeight="8916" xr2:uid="{6ABEF735-ABAC-4CF2-A972-C8BC79EE00CB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6ABEF735-ABAC-4CF2-A972-C8BC79EE00CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>name</t>
   </si>
@@ -146,6 +146,36 @@
   </si>
   <si>
     <t>0x210705</t>
+  </si>
+  <si>
+    <t>STEERING_SERVO_CUR_POS_FRONT</t>
+  </si>
+  <si>
+    <t>0x211104</t>
+  </si>
+  <si>
+    <t>parrots</t>
+  </si>
+  <si>
+    <t>STEERING_SERVO_CURRENT_FRONT</t>
+  </si>
+  <si>
+    <t>0x211112</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>0x211204</t>
+  </si>
+  <si>
+    <t>0x211212</t>
+  </si>
+  <si>
+    <t>STEERING_SERVO_CUR_POS_REAR</t>
+  </si>
+  <si>
+    <t>STEERING_SERVO_CURRENT_REAR</t>
   </si>
 </sst>
 </file>
@@ -515,15 +545,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEF9F55-F318-47C4-B8C1-11EB0E54F5F8}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -702,6 +732,62 @@
         <v>32</v>
       </c>
     </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/table_for_params_new_VMU.xlsx
+++ b/Tables/table_for_params_new_VMU.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA9392B-C439-4BB1-89F6-5161E2CB3D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189E6623-CD34-419F-B780-BFACA6A4344C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6ABEF735-ABAC-4CF2-A972-C8BC79EE00CB}"/>
+    <workbookView xWindow="4248" yWindow="2556" windowWidth="17280" windowHeight="8916" xr2:uid="{6ABEF735-ABAC-4CF2-A972-C8BC79EE00CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -545,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEF9F55-F318-47C4-B8C1-11EB0E54F5F8}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -748,43 +749,15 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -793,4 +766,52 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56C0247-C8CB-47BF-8BA8-DE8FC65BA55E}">
+  <dimension ref="A2:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tables/table_for_params_new_VMU.xlsx
+++ b/Tables/table_for_params_new_VMU.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71FA3D2-33C4-451F-9BE2-C95CD068D7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189E6623-CD34-419F-B780-BFACA6A4344C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2208" windowWidth="17280" windowHeight="8916" xr2:uid="{6ABEF735-ABAC-4CF2-A972-C8BC79EE00CB}"/>
+    <workbookView xWindow="4248" yWindow="2556" windowWidth="17280" windowHeight="8916" xr2:uid="{6ABEF735-ABAC-4CF2-A972-C8BC79EE00CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -545,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEF9F55-F318-47C4-B8C1-11EB0E54F5F8}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -748,43 +749,15 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -793,4 +766,52 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56C0247-C8CB-47BF-8BA8-DE8FC65BA55E}">
+  <dimension ref="A2:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tables/table_for_params_new_VMU.xlsx
+++ b/Tables/table_for_params_new_VMU.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189E6623-CD34-419F-B780-BFACA6A4344C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0CE59FF-9A49-425D-9CB1-C001F1CD1A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4248" yWindow="2556" windowWidth="17280" windowHeight="8916" xr2:uid="{6ABEF735-ABAC-4CF2-A972-C8BC79EE00CB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{6ABEF735-ABAC-4CF2-A972-C8BC79EE00CB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Сборная солянка" sheetId="1" r:id="rId1"/>
+    <sheet name="Рули" sheetId="5" r:id="rId2"/>
+    <sheet name="Инвертор" sheetId="2" r:id="rId3"/>
+    <sheet name="Подвеска" sheetId="6" r:id="rId4"/>
+    <sheet name="Все параметры" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="370">
   <si>
     <t>name</t>
   </si>
@@ -140,9 +143,6 @@
     <t>PSTED_INV_RADIATOR_TEMP</t>
   </si>
   <si>
-    <t>0x210811</t>
-  </si>
-  <si>
     <t>PSTED_OUT_BMS_VOLTAGE</t>
   </si>
   <si>
@@ -161,29 +161,1001 @@
     <t>STEERING_SERVO_CURRENT_FRONT</t>
   </si>
   <si>
-    <t>0x211112</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
     <t>0x211204</t>
   </si>
   <si>
-    <t>0x211212</t>
-  </si>
-  <si>
     <t>STEERING_SERVO_CUR_POS_REAR</t>
   </si>
   <si>
     <t>STEERING_SERVO_CURRENT_REAR</t>
+  </si>
+  <si>
+    <t>0x21120c</t>
+  </si>
+  <si>
+    <t>0x21080b</t>
+  </si>
+  <si>
+    <t>0x21110c</t>
+  </si>
+  <si>
+    <t>GLOBAL_MANUAL_ENABLE</t>
+  </si>
+  <si>
+    <t>JOYSTICK_ENABLE</t>
+  </si>
+  <si>
+    <t>LIGHTS_TURNS_PERIOD_MS</t>
+  </si>
+  <si>
+    <t>UNSIGNED32</t>
+  </si>
+  <si>
+    <t>EEPROM_CMD_READ</t>
+  </si>
+  <si>
+    <t>EEPROM_CMD_WRITE</t>
+  </si>
+  <si>
+    <t>PSTED_OUT_RUN</t>
+  </si>
+  <si>
+    <t>PSTED_OUT_EM_STOP</t>
+  </si>
+  <si>
+    <t>PSTED_OUT_REF_TORQUE</t>
+  </si>
+  <si>
+    <t>PSTED_OUT_FLUX_CURRENT</t>
+  </si>
+  <si>
+    <t>SYSTEM_PSTED_ONLINE</t>
+  </si>
+  <si>
+    <t>PSTED_STATUS</t>
+  </si>
+  <si>
+    <t>PSTED_POWER</t>
+  </si>
+  <si>
+    <t>PSTED_PHASE_VOLTAGE</t>
+  </si>
+  <si>
+    <t>PSTED_FLUXCOIL_TEMP</t>
+  </si>
+  <si>
+    <t>PSTED_INV_INTERNAL_TEMP</t>
+  </si>
+  <si>
+    <t>PSTED_ISOLATION_STATUS</t>
+  </si>
+  <si>
+    <t>PSTED_ERRORS_1</t>
+  </si>
+  <si>
+    <t>PSTED_ERRORS_2</t>
+  </si>
+  <si>
+    <t>PSTED_WARNINGS</t>
+  </si>
+  <si>
+    <t>PSTED_MANUAL_REFTORQUE</t>
+  </si>
+  <si>
+    <t>PSTED_TORQUE_INVERT</t>
+  </si>
+  <si>
+    <t>PSTED_RAMP_MAX_TORQUE</t>
+  </si>
+  <si>
+    <t>PSTED_RAMP_TIME_MS</t>
+  </si>
+  <si>
+    <t>STEERING_MANUAL_CMD_FRONT</t>
+  </si>
+  <si>
+    <t>STEERING_MANUAL_CMD_REAR</t>
+  </si>
+  <si>
+    <t>STEERING_PARAM_MSG_TIMEOUT</t>
+  </si>
+  <si>
+    <t>STEERING_PARAM_REAR_TASK_ACTIVE</t>
+  </si>
+  <si>
+    <t>STEERING_AUTOPILOT_CMD_FRONT</t>
+  </si>
+  <si>
+    <t>STEERING_AUTOPILOT_CUR_POS_FRONT</t>
+  </si>
+  <si>
+    <t>STEERING_SERVO_CMD_FRONT</t>
+  </si>
+  <si>
+    <t>STEERING_SERVO_RUN_FRONT</t>
+  </si>
+  <si>
+    <t>STEERING_SERVO_PRESENT_FRONT</t>
+  </si>
+  <si>
+    <t>STEERING_PARAM_ZERO_FRONT</t>
+  </si>
+  <si>
+    <t>STEERING_PARAM_MAX_FRONT</t>
+  </si>
+  <si>
+    <t>STEERING_PARAM_MIN_FRONT</t>
+  </si>
+  <si>
+    <t>STEERING_PARAM_INVERT_FRONT</t>
+  </si>
+  <si>
+    <t>STEERING_SERVO_STATUS_FRONT</t>
+  </si>
+  <si>
+    <t>STEERING_SERVO_TEMP_FRONT</t>
+  </si>
+  <si>
+    <t>STEERING_SERVO_MOTORTEMP_FRONT</t>
+  </si>
+  <si>
+    <t>STEERING_AUTOPILOT_CMD_REAR</t>
+  </si>
+  <si>
+    <t>STEERING_AUTOPILOT_CUR_POS_REAR</t>
+  </si>
+  <si>
+    <t>STEERING_SERVO_CMD_REAR</t>
+  </si>
+  <si>
+    <t>STEERING_SERVO_RUN_REAR</t>
+  </si>
+  <si>
+    <t>STEERING_SERVO_PRESENT_REAR</t>
+  </si>
+  <si>
+    <t>STEERING_PARAM_ZERO_REAR</t>
+  </si>
+  <si>
+    <t>STEERING_PARAM_MAX_REAR</t>
+  </si>
+  <si>
+    <t>STEERING_PARAM_MIN_REAR</t>
+  </si>
+  <si>
+    <t>STEERING_PARAM_INVERT_REAR</t>
+  </si>
+  <si>
+    <t>STEERING_SERVO_STATUS_REAR</t>
+  </si>
+  <si>
+    <t>STEERING_SERVO_TEMP_REAR</t>
+  </si>
+  <si>
+    <t>STEERING_SERVO_MOTORTEMP_REAR</t>
+  </si>
+  <si>
+    <t>IOLIB_ERROR_CODE</t>
+  </si>
+  <si>
+    <t>IOLIB_ERROR_DEVICE</t>
+  </si>
+  <si>
+    <t>IOLIB_CFG_FLASH_ERRORS</t>
+  </si>
+  <si>
+    <t>IOLIB_FLASH_ERRORS</t>
+  </si>
+  <si>
+    <t>IOLIB_RAM_ERRORS</t>
+  </si>
+  <si>
+    <t>CANOPEN_ERROR_LIST_VALUE</t>
+  </si>
+  <si>
+    <t>CANOPEN_ERROR_LIST_TIMEOUT</t>
+  </si>
+  <si>
+    <t>SM_CURRENT_STATE</t>
+  </si>
+  <si>
+    <t>ACTIVE_WARNING_NUMBER_CANOPEN</t>
+  </si>
+  <si>
+    <t>ACTIVE_CRITICAL_NUMBER_CANOPEN</t>
+  </si>
+  <si>
+    <t>ERROR_LIST_ONLY_CRITICAL</t>
+  </si>
+  <si>
+    <t>BRAKE_ACC_PRESSURE_MAX</t>
+  </si>
+  <si>
+    <t>BRAKE_ACC_PRESSURE_MIN</t>
+  </si>
+  <si>
+    <t>BRAKE_ACC_PRESSURE_CRITICAL</t>
+  </si>
+  <si>
+    <t>BRAKE_ACC_CRITICAL_TIMEOUT_MS</t>
+  </si>
+  <si>
+    <t>BRAKE_SLA_VOLT_MAX</t>
+  </si>
+  <si>
+    <t>BRAKE_SLA_VOLT_MIN</t>
+  </si>
+  <si>
+    <t>BRAKE_SLR_VOLT_MAX</t>
+  </si>
+  <si>
+    <t>BRAKE_SLR_VOLT_MIN</t>
+  </si>
+  <si>
+    <t>BRAKE_PID_PROP_NUM</t>
+  </si>
+  <si>
+    <t>BRAKE_PID_PROP_DENOM</t>
+  </si>
+  <si>
+    <t>BRAKE_PID_INT_NUM</t>
+  </si>
+  <si>
+    <t>BRAKE_PID_INT_DENOM</t>
+  </si>
+  <si>
+    <t>BRAKE_DIRECT_UNITS_CONTROL</t>
+  </si>
+  <si>
+    <t>BRAKE_TASK_ACTIVE</t>
+  </si>
+  <si>
+    <t>BRAKE_ADC_FILTER_FACTOR</t>
+  </si>
+  <si>
+    <t>BRAKE_SMC_VOLT_MAX</t>
+  </si>
+  <si>
+    <t>BRAKE_SMC_VOLT_MIN</t>
+  </si>
+  <si>
+    <t>BRAKE_EMERGENCY_STOP_POWER</t>
+  </si>
+  <si>
+    <t>BRAKE_CMD_CANOPEN</t>
+  </si>
+  <si>
+    <t>BRAKE_CONT1_CUR_PRESSURE_CANOPEN</t>
+  </si>
+  <si>
+    <t>BRAKE_CONT2_CUR_PRESSURE_CANOPEN</t>
+  </si>
+  <si>
+    <t>BRAKE_PUMP_ENABLED</t>
+  </si>
+  <si>
+    <t>BRAKE_ACC_CUR_PRESSURE</t>
+  </si>
+  <si>
+    <t>BRAKE_MANUAL_PUMP_EN</t>
+  </si>
+  <si>
+    <t>BRAKE_SMC1_MANUAL_CTRL</t>
+  </si>
+  <si>
+    <t>BRAKE_SMC2_MANUAL_CTRL</t>
+  </si>
+  <si>
+    <t>BRAKE_SLAL_MANUAL_CTRL</t>
+  </si>
+  <si>
+    <t>BRAKE_SLRL_MANUAL_CTRL</t>
+  </si>
+  <si>
+    <t>BRAKE_SLAR_MANUAL_CTRL</t>
+  </si>
+  <si>
+    <t>BRAKE_SLRR_MANUAL_CTRL</t>
+  </si>
+  <si>
+    <t>BRAKE_CURVE_TIME_1</t>
+  </si>
+  <si>
+    <t>BRAKE_CURVE_TIME_2</t>
+  </si>
+  <si>
+    <t>BRAKE_CURVE_TIME_3</t>
+  </si>
+  <si>
+    <t>BRAKE_CURVE_TIME_4</t>
+  </si>
+  <si>
+    <t>BRAKE_CURVE_TIME_5</t>
+  </si>
+  <si>
+    <t>BRAKE_CURVE_PRESSURE_1</t>
+  </si>
+  <si>
+    <t>BRAKE_CURVE_PRESSURE_2</t>
+  </si>
+  <si>
+    <t>BRAKE_CURVE_PRESSURE_3</t>
+  </si>
+  <si>
+    <t>BRAKE_CURVE_PRESSURE_4</t>
+  </si>
+  <si>
+    <t>BRAKE_CURVE_PRESSURE_5</t>
+  </si>
+  <si>
+    <t>SYSTEM_BKU_ONLINE</t>
+  </si>
+  <si>
+    <t>POWER_BKU_TURNOFF_TIMEOUT_MS</t>
+  </si>
+  <si>
+    <t>SYSTEM_BKU_MSG_TIMEOUT</t>
+  </si>
+  <si>
+    <t>RESET_ERRORS_CMD_CANOPEN</t>
+  </si>
+  <si>
+    <t>SUSPENSION_ENABLE_PIN_SIGNAL</t>
+  </si>
+  <si>
+    <t>SUSPENSION_HEIGHT_CUR_1</t>
+  </si>
+  <si>
+    <t>SUSPENSION_HEIGHT_CUR_2</t>
+  </si>
+  <si>
+    <t>SUSPENSION_HEIGHT_CUR_3</t>
+  </si>
+  <si>
+    <t>SUSPENSION_HEIGHT_CUR_4</t>
+  </si>
+  <si>
+    <t>SUSPENSION_PRESSURE_CUR_1</t>
+  </si>
+  <si>
+    <t>SUSPENSION_PRESSURE_CUR_2</t>
+  </si>
+  <si>
+    <t>SUSPENSION_PRESSURE_CUR_3</t>
+  </si>
+  <si>
+    <t>SUSPENSION_PRESSURE_CUR_4</t>
+  </si>
+  <si>
+    <t>SUSPENSION_TASK_DETAILED_STATUS</t>
+  </si>
+  <si>
+    <t>SUSPENSION_PRESSURE_MAX</t>
+  </si>
+  <si>
+    <t>SUSPENSION_PRESSURE_MIN</t>
+  </si>
+  <si>
+    <t>SUSPENSION_HEIGHT_TOLERANCE</t>
+  </si>
+  <si>
+    <t>SUSPENSION_PRESSURE_SENSOR_FILTER_PARAM</t>
+  </si>
+  <si>
+    <t>SUSPENSION_HEIGHT_SENSOR_FILTER_PARAM</t>
+  </si>
+  <si>
+    <t>SUSPENSION_HEIGHT_INVERT_1</t>
+  </si>
+  <si>
+    <t>SUSPENSION_HEIGHT_INVERT_2</t>
+  </si>
+  <si>
+    <t>SUSPENSION_HEIGHT_INVERT_3</t>
+  </si>
+  <si>
+    <t>SUSPENSION_HEIGHT_INVERT_4</t>
+  </si>
+  <si>
+    <t>SUSPENSION_HEIGHT_H_OFFSET_1</t>
+  </si>
+  <si>
+    <t>SUSPENSION_HEIGHT_H_OFFSET_3</t>
+  </si>
+  <si>
+    <t>SUSPENSION_HEIGHT_H_OFFSET_2</t>
+  </si>
+  <si>
+    <t>SUSPENSION_HEIGHT_H_OFFSET_4</t>
+  </si>
+  <si>
+    <t>SYSTEM_12V_VOLTAGE</t>
+  </si>
+  <si>
+    <t>SYSTEM_24V_VOLTAGE_LOWER_LIM</t>
+  </si>
+  <si>
+    <t>SYSTEM_24V_VOLTAGE_UPPER_LIM</t>
+  </si>
+  <si>
+    <t>SYSTEM_12V_VOLTAGE_LOWER_LIM</t>
+  </si>
+  <si>
+    <t>SYSTEM_12V_VOLTAGE_UPPER_LIM</t>
+  </si>
+  <si>
+    <t>BMS_TIMEOUT_MS</t>
+  </si>
+  <si>
+    <t>CHARGER_TIMEOUT_MS</t>
+  </si>
+  <si>
+    <t>CHARGER_PSTED_VOLTAGE_THRES</t>
+  </si>
+  <si>
+    <t>CHARGER_IGNORE_VOLT_ERR_TIMEOUT_MS</t>
+  </si>
+  <si>
+    <t>SYSTEM_BMS_ONLINE</t>
+  </si>
+  <si>
+    <t>SYSTEM_BZU_ONLINE</t>
+  </si>
+  <si>
+    <t>PARKING_BRAKE_CMD_HOLD_CANOPEN</t>
+  </si>
+  <si>
+    <t>PARKING_BRAKE_HELD_CANOPEN</t>
+  </si>
+  <si>
+    <t>INPUT_RED_BUTTON</t>
+  </si>
+  <si>
+    <t>INPUT_ANTIFREEZE_SENSOR</t>
+  </si>
+  <si>
+    <t>INPUT_BRAKE_FLUID_SENSOR</t>
+  </si>
+  <si>
+    <t>ABS_WHEEL_TICK_COUNT</t>
+  </si>
+  <si>
+    <t>ABS_WHEEL_DIAMETER</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>ABS_WHEEL_MIN_SPEED_THRESHOLD</t>
+  </si>
+  <si>
+    <t>ABS_MOTOR_MIN_SPEED_THRESHOLD</t>
+  </si>
+  <si>
+    <t>ABS_WARNING_COUNT_THRESHOLD</t>
+  </si>
+  <si>
+    <t>ABS_FAILURE_COUNT_THRESHOLD</t>
+  </si>
+  <si>
+    <t>ABS_SENSOR_MAPPING_FL</t>
+  </si>
+  <si>
+    <t>ABS_SENSOR_MAPPING_FR</t>
+  </si>
+  <si>
+    <t>ABS_SENSOR_MAPPING_RL</t>
+  </si>
+  <si>
+    <t>ABS_SENSOR_MAPPING_RR</t>
+  </si>
+  <si>
+    <t>ABS_FILTER_FACTOR</t>
+  </si>
+  <si>
+    <t>JOYSTICK_TIMEOUT</t>
+  </si>
+  <si>
+    <t>0x210001</t>
+  </si>
+  <si>
+    <t>0x210002</t>
+  </si>
+  <si>
+    <t>0x210101</t>
+  </si>
+  <si>
+    <t>0x210201</t>
+  </si>
+  <si>
+    <t>0x210202</t>
+  </si>
+  <si>
+    <t>0x210701</t>
+  </si>
+  <si>
+    <t>0x210702</t>
+  </si>
+  <si>
+    <t>0x210703</t>
+  </si>
+  <si>
+    <t>0x210704</t>
+  </si>
+  <si>
+    <t>0x210706</t>
+  </si>
+  <si>
+    <t>0x210801</t>
+  </si>
+  <si>
+    <t>0x210805</t>
+  </si>
+  <si>
+    <t>0x210807</t>
+  </si>
+  <si>
+    <t>0x210809</t>
+  </si>
+  <si>
+    <t>0x21080A</t>
+  </si>
+  <si>
+    <t>0x21080B</t>
+  </si>
+  <si>
+    <t>0x21080C</t>
+  </si>
+  <si>
+    <t>0x21080D</t>
+  </si>
+  <si>
+    <t>0x21080E</t>
+  </si>
+  <si>
+    <t>0x21080F</t>
+  </si>
+  <si>
+    <t>0x2108010</t>
+  </si>
+  <si>
+    <t>0x210901</t>
+  </si>
+  <si>
+    <t>0x210902</t>
+  </si>
+  <si>
+    <t>0x210903</t>
+  </si>
+  <si>
+    <t>0x211001</t>
+  </si>
+  <si>
+    <t>0x211002</t>
+  </si>
+  <si>
+    <t>0x211003</t>
+  </si>
+  <si>
+    <t>0x211004</t>
+  </si>
+  <si>
+    <t>0x211101</t>
+  </si>
+  <si>
+    <t>0x211102</t>
+  </si>
+  <si>
+    <t>0x211103</t>
+  </si>
+  <si>
+    <t>0x211105</t>
+  </si>
+  <si>
+    <t>0x211106</t>
+  </si>
+  <si>
+    <t>0x211107</t>
+  </si>
+  <si>
+    <t>0x211108</t>
+  </si>
+  <si>
+    <t>0x211109</t>
+  </si>
+  <si>
+    <t>0x21110A</t>
+  </si>
+  <si>
+    <t>0x21110B</t>
+  </si>
+  <si>
+    <t>0x21110C</t>
+  </si>
+  <si>
+    <t>0x21110D</t>
+  </si>
+  <si>
+    <t>0x21110E</t>
+  </si>
+  <si>
+    <t>0x211201</t>
+  </si>
+  <si>
+    <t>0x211202</t>
+  </si>
+  <si>
+    <t>0x211203</t>
+  </si>
+  <si>
+    <t>0x211205</t>
+  </si>
+  <si>
+    <t>0x211206</t>
+  </si>
+  <si>
+    <t>0x211207</t>
+  </si>
+  <si>
+    <t>0x211208</t>
+  </si>
+  <si>
+    <t>0x211209</t>
+  </si>
+  <si>
+    <t>0x21120A</t>
+  </si>
+  <si>
+    <t>0x21120B</t>
+  </si>
+  <si>
+    <t>0x21120C</t>
+  </si>
+  <si>
+    <t>0x21120D</t>
+  </si>
+  <si>
+    <t>0x21120E</t>
+  </si>
+  <si>
+    <t>0x211301</t>
+  </si>
+  <si>
+    <t>0x211302</t>
+  </si>
+  <si>
+    <t>0x211303</t>
+  </si>
+  <si>
+    <t>0x211304</t>
+  </si>
+  <si>
+    <t>0x211305</t>
+  </si>
+  <si>
+    <t>0x211501</t>
+  </si>
+  <si>
+    <t>0x211502</t>
+  </si>
+  <si>
+    <t>0x211503</t>
+  </si>
+  <si>
+    <t>0x211504</t>
+  </si>
+  <si>
+    <t>0x211505</t>
+  </si>
+  <si>
+    <t>0x211506</t>
+  </si>
+  <si>
+    <t>0x211601</t>
+  </si>
+  <si>
+    <t>0x211602</t>
+  </si>
+  <si>
+    <t>0x211603</t>
+  </si>
+  <si>
+    <t>0x211604</t>
+  </si>
+  <si>
+    <t>0x211605</t>
+  </si>
+  <si>
+    <t>0x211606</t>
+  </si>
+  <si>
+    <t>0x211607</t>
+  </si>
+  <si>
+    <t>0x211608</t>
+  </si>
+  <si>
+    <t>0x211609</t>
+  </si>
+  <si>
+    <t>0x21160A</t>
+  </si>
+  <si>
+    <t>0x21160B</t>
+  </si>
+  <si>
+    <t>0x21160C</t>
+  </si>
+  <si>
+    <t>0x21160D</t>
+  </si>
+  <si>
+    <t>0x21160E</t>
+  </si>
+  <si>
+    <t>0x21160F</t>
+  </si>
+  <si>
+    <t>0x2116010</t>
+  </si>
+  <si>
+    <t>0x2116011</t>
+  </si>
+  <si>
+    <t>0x2116012</t>
+  </si>
+  <si>
+    <t>0x211701</t>
+  </si>
+  <si>
+    <t>0x211702</t>
+  </si>
+  <si>
+    <t>0x211703</t>
+  </si>
+  <si>
+    <t>0x211704</t>
+  </si>
+  <si>
+    <t>0x211705</t>
+  </si>
+  <si>
+    <t>0x211706</t>
+  </si>
+  <si>
+    <t>0x211707</t>
+  </si>
+  <si>
+    <t>0x211708</t>
+  </si>
+  <si>
+    <t>0x211709</t>
+  </si>
+  <si>
+    <t>0x21170A</t>
+  </si>
+  <si>
+    <t>0x21170B</t>
+  </si>
+  <si>
+    <t>0x21170C</t>
+  </si>
+  <si>
+    <t>0x211801</t>
+  </si>
+  <si>
+    <t>0x211802</t>
+  </si>
+  <si>
+    <t>0x211803</t>
+  </si>
+  <si>
+    <t>0x211804</t>
+  </si>
+  <si>
+    <t>0x211805</t>
+  </si>
+  <si>
+    <t>0x211806</t>
+  </si>
+  <si>
+    <t>0x211807</t>
+  </si>
+  <si>
+    <t>0x211808</t>
+  </si>
+  <si>
+    <t>0x211809</t>
+  </si>
+  <si>
+    <t>0x21180A</t>
+  </si>
+  <si>
+    <t>0x212001</t>
+  </si>
+  <si>
+    <t>0x212002</t>
+  </si>
+  <si>
+    <t>0x212003</t>
+  </si>
+  <si>
+    <t>0x212501</t>
+  </si>
+  <si>
+    <t>0x213001</t>
+  </si>
+  <si>
+    <t>0x213002</t>
+  </si>
+  <si>
+    <t>0x213003</t>
+  </si>
+  <si>
+    <t>0x213004</t>
+  </si>
+  <si>
+    <t>0x213005</t>
+  </si>
+  <si>
+    <t>0x213006</t>
+  </si>
+  <si>
+    <t>0x213007</t>
+  </si>
+  <si>
+    <t>0x213008</t>
+  </si>
+  <si>
+    <t>0x213009</t>
+  </si>
+  <si>
+    <t>0x21300A</t>
+  </si>
+  <si>
+    <t>0x213101</t>
+  </si>
+  <si>
+    <t>0x213102</t>
+  </si>
+  <si>
+    <t>0x213103</t>
+  </si>
+  <si>
+    <t>0x213104</t>
+  </si>
+  <si>
+    <t>0x213105</t>
+  </si>
+  <si>
+    <t>0x213106</t>
+  </si>
+  <si>
+    <t>0x213107</t>
+  </si>
+  <si>
+    <t>0x213108</t>
+  </si>
+  <si>
+    <t>0x213109</t>
+  </si>
+  <si>
+    <t>0x21310A</t>
+  </si>
+  <si>
+    <t>0x21310B</t>
+  </si>
+  <si>
+    <t>0x21310C</t>
+  </si>
+  <si>
+    <t>0x21310D</t>
+  </si>
+  <si>
+    <t>0x213502</t>
+  </si>
+  <si>
+    <t>0x213503</t>
+  </si>
+  <si>
+    <t>0x213504</t>
+  </si>
+  <si>
+    <t>0x213505</t>
+  </si>
+  <si>
+    <t>0x213506</t>
+  </si>
+  <si>
+    <t>0x214001</t>
+  </si>
+  <si>
+    <t>0x214002</t>
+  </si>
+  <si>
+    <t>0x214003</t>
+  </si>
+  <si>
+    <t>0x214004</t>
+  </si>
+  <si>
+    <t>0x214005</t>
+  </si>
+  <si>
+    <t>0x214006</t>
+  </si>
+  <si>
+    <t>0x214501</t>
+  </si>
+  <si>
+    <t>0x214502</t>
+  </si>
+  <si>
+    <t>0x215001</t>
+  </si>
+  <si>
+    <t>0x215002</t>
+  </si>
+  <si>
+    <t>0x215003</t>
+  </si>
+  <si>
+    <t>0x216001</t>
+  </si>
+  <si>
+    <t>0x216002</t>
+  </si>
+  <si>
+    <t>0x216003</t>
+  </si>
+  <si>
+    <t>0x216004</t>
+  </si>
+  <si>
+    <t>0x216005</t>
+  </si>
+  <si>
+    <t>0x216006</t>
+  </si>
+  <si>
+    <t>0x216007</t>
+  </si>
+  <si>
+    <t>0x216008</t>
+  </si>
+  <si>
+    <t>0x216009</t>
+  </si>
+  <si>
+    <t>0x21600A</t>
+  </si>
+  <si>
+    <t>0x21600B</t>
+  </si>
+  <si>
+    <t>0x212004</t>
+  </si>
+  <si>
+    <t>На текущий момент это вс парметры, которые может отдавать КВУ TTC Control</t>
+  </si>
+  <si>
+    <t>Не надо их все сразу запихивать!</t>
+  </si>
+  <si>
+    <t>Желательно по 10 параметров на лист</t>
+  </si>
+  <si>
+    <t>addresss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,13 +1178,28 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -227,11 +1214,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -546,218 +1540,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEF9F55-F318-47C4-B8C1-11EB0E54F5F8}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="9" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
+        <f>32767/8000</f>
+        <v>4.0958750000000004</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <f>32767/8000</f>
-        <v>4.0958750000000004</v>
+        <f>127/650</f>
+        <v>0.19538461538461538</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <f>127/650</f>
-        <v>0.19538461538461538</v>
+        <f>255/1620</f>
+        <v>0.15740740740740741</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5">
-        <f>255/1620</f>
-        <v>0.15740740740740741</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8">
-        <f>200/349</f>
-        <v>0.57306590257879653</v>
+        <v>44</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
+      <c r="A9" t="s">
+        <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>316</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>37</v>
+      <c r="A10" t="s">
+        <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>45</v>
+      <c r="A11" t="s">
+        <v>157</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" t="s">
+        <v>319</v>
+      </c>
+      <c r="J12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -769,49 +1752,2408 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04D7DBC-FFEE-4012-8E49-16C45A0D8C33}">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>245</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
+        <v>258</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56C0247-C8CB-47BF-8BA8-DE8FC65BA55E}">
-  <dimension ref="A2:J3"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
     <col min="10" max="10" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>42</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>42</v>
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <f>32767/8000</f>
+        <v>4.0958750000000004</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <f>127/650</f>
+        <v>0.19538461538461538</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <f>255/1620</f>
+        <v>0.15740740740740741</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>40</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C263A79-DC5B-4732-A4FB-7C8D4BFF62C4}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" t="s">
+        <v>316</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" t="s">
+        <v>318</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" t="s">
+        <v>319</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D7">
+        <v>1000</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" t="s">
+        <v>322</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" t="s">
+        <v>323</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF95FBF-80FD-424F-848A-C732A23063BE}">
+  <dimension ref="A1:J171"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" t="s">
+        <v>359</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" t="s">
+        <v>364</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" t="s">
+        <v>357</v>
+      </c>
+      <c r="J5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" t="s">
+        <v>360</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" t="s">
+        <v>361</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" t="s">
+        <v>362</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" t="s">
+        <v>363</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" t="s">
+        <v>358</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" t="s">
+        <v>355</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" t="s">
+        <v>356</v>
+      </c>
+      <c r="J12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" t="s">
+        <v>354</v>
+      </c>
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
+        <v>269</v>
+      </c>
+      <c r="J14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" t="s">
+        <v>268</v>
+      </c>
+      <c r="J15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" t="s">
+        <v>343</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" t="s">
+        <v>274</v>
+      </c>
+      <c r="J17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" t="s">
+        <v>293</v>
+      </c>
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" t="s">
+        <v>273</v>
+      </c>
+      <c r="J19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" t="s">
+        <v>271</v>
+      </c>
+      <c r="J20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" t="s">
+        <v>272</v>
+      </c>
+      <c r="J21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" t="s">
+        <v>285</v>
+      </c>
+      <c r="J22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" t="s">
+        <v>290</v>
+      </c>
+      <c r="J24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" t="s">
+        <v>291</v>
+      </c>
+      <c r="J25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" t="s">
+        <v>306</v>
+      </c>
+      <c r="J26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" t="s">
+        <v>307</v>
+      </c>
+      <c r="J27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" t="s">
+        <v>308</v>
+      </c>
+      <c r="J28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" t="s">
+        <v>309</v>
+      </c>
+      <c r="J29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" t="s">
+        <v>310</v>
+      </c>
+      <c r="J30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" t="s">
+        <v>301</v>
+      </c>
+      <c r="J31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" t="s">
+        <v>302</v>
+      </c>
+      <c r="J32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" t="s">
+        <v>303</v>
+      </c>
+      <c r="J33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" t="s">
+        <v>304</v>
+      </c>
+      <c r="J34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" t="s">
+        <v>305</v>
+      </c>
+      <c r="J35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" t="s">
+        <v>283</v>
+      </c>
+      <c r="J36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" t="s">
+        <v>288</v>
+      </c>
+      <c r="J37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" t="s">
+        <v>294</v>
+      </c>
+      <c r="J38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" t="s">
+        <v>282</v>
+      </c>
+      <c r="J39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" t="s">
+        <v>281</v>
+      </c>
+      <c r="J40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" t="s">
+        <v>280</v>
+      </c>
+      <c r="J41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" t="s">
+        <v>279</v>
+      </c>
+      <c r="J42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" t="s">
+        <v>292</v>
+      </c>
+      <c r="J43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" t="s">
+        <v>275</v>
+      </c>
+      <c r="J44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" t="s">
+        <v>276</v>
+      </c>
+      <c r="J45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" t="s">
+        <v>297</v>
+      </c>
+      <c r="J46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" t="s">
+        <v>299</v>
+      </c>
+      <c r="J47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" t="s">
+        <v>277</v>
+      </c>
+      <c r="J48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" t="s">
+        <v>278</v>
+      </c>
+      <c r="J49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" t="s">
+        <v>298</v>
+      </c>
+      <c r="J50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" t="s">
+        <v>300</v>
+      </c>
+      <c r="J51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" t="s">
+        <v>286</v>
+      </c>
+      <c r="J52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" t="s">
+        <v>287</v>
+      </c>
+      <c r="J53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" t="s">
+        <v>295</v>
+      </c>
+      <c r="J54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" t="s">
+        <v>296</v>
+      </c>
+      <c r="J55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" t="s">
+        <v>284</v>
+      </c>
+      <c r="J56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" t="s">
+        <v>266</v>
+      </c>
+      <c r="J57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" t="s">
+        <v>265</v>
+      </c>
+      <c r="J58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>185</v>
+      </c>
+      <c r="B59" t="s">
+        <v>346</v>
+      </c>
+      <c r="J59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60" t="s">
+        <v>345</v>
+      </c>
+      <c r="J60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61" t="s">
+        <v>344</v>
+      </c>
+      <c r="J61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" t="s">
+        <v>209</v>
+      </c>
+      <c r="J62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" t="s">
+        <v>210</v>
+      </c>
+      <c r="J63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" t="s">
+        <v>270</v>
+      </c>
+      <c r="J64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" t="s">
+        <v>206</v>
+      </c>
+      <c r="J65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>191</v>
+      </c>
+      <c r="B66" t="s">
+        <v>352</v>
+      </c>
+      <c r="J66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>192</v>
+      </c>
+      <c r="B67" t="s">
+        <v>353</v>
+      </c>
+      <c r="J67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>190</v>
+      </c>
+      <c r="B68" t="s">
+        <v>351</v>
+      </c>
+      <c r="J68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" t="s">
+        <v>262</v>
+      </c>
+      <c r="J69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>99</v>
+      </c>
+      <c r="B70" t="s">
+        <v>260</v>
+      </c>
+      <c r="J70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" t="s">
+        <v>261</v>
+      </c>
+      <c r="J71" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" t="s">
+        <v>263</v>
+      </c>
+      <c r="J72" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" t="s">
+        <v>264</v>
+      </c>
+      <c r="J73" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" t="s">
+        <v>207</v>
+      </c>
+      <c r="J74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>205</v>
+      </c>
+      <c r="B75" t="s">
+        <v>365</v>
+      </c>
+      <c r="J75" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>49</v>
+      </c>
+      <c r="B76" t="s">
+        <v>208</v>
+      </c>
+      <c r="J76" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>188</v>
+      </c>
+      <c r="B77" t="s">
+        <v>349</v>
+      </c>
+      <c r="J77" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>189</v>
+      </c>
+      <c r="B78" t="s">
+        <v>350</v>
+      </c>
+      <c r="J78" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>151</v>
+      </c>
+      <c r="B79" t="s">
+        <v>312</v>
+      </c>
+      <c r="J79" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>64</v>
+      </c>
+      <c r="B81" t="s">
+        <v>223</v>
+      </c>
+      <c r="J81" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>65</v>
+      </c>
+      <c r="B82" t="s">
+        <v>224</v>
+      </c>
+      <c r="J82" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>61</v>
+      </c>
+      <c r="B83" t="s">
+        <v>219</v>
+      </c>
+      <c r="J83" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>62</v>
+      </c>
+      <c r="B84" t="s">
+        <v>221</v>
+      </c>
+      <c r="J84" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" t="s">
+        <v>220</v>
+      </c>
+      <c r="J85" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>63</v>
+      </c>
+      <c r="B86" t="s">
+        <v>222</v>
+      </c>
+      <c r="J86" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>67</v>
+      </c>
+      <c r="B87" t="s">
+        <v>226</v>
+      </c>
+      <c r="J87" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" t="s">
+        <v>20</v>
+      </c>
+      <c r="J89" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>34</v>
+      </c>
+      <c r="B90" t="s">
+        <v>35</v>
+      </c>
+      <c r="J90" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>54</v>
+      </c>
+      <c r="B91" t="s">
+        <v>212</v>
+      </c>
+      <c r="J91" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>56</v>
+      </c>
+      <c r="B92" t="s">
+        <v>214</v>
+      </c>
+      <c r="J92" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>55</v>
+      </c>
+      <c r="B93" t="s">
+        <v>213</v>
+      </c>
+      <c r="J93" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>53</v>
+      </c>
+      <c r="B94" t="s">
+        <v>211</v>
+      </c>
+      <c r="J94" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>60</v>
+      </c>
+      <c r="B95" t="s">
+        <v>218</v>
+      </c>
+      <c r="J95" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>59</v>
+      </c>
+      <c r="B96" t="s">
+        <v>217</v>
+      </c>
+      <c r="J96" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>69</v>
+      </c>
+      <c r="B97" t="s">
+        <v>228</v>
+      </c>
+      <c r="J97" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>70</v>
+      </c>
+      <c r="B98" t="s">
+        <v>229</v>
+      </c>
+      <c r="J98" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>58</v>
+      </c>
+      <c r="B99" t="s">
+        <v>216</v>
+      </c>
+      <c r="J99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="J100" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>68</v>
+      </c>
+      <c r="B101" t="s">
+        <v>227</v>
+      </c>
+      <c r="J101" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102" t="s">
+        <v>19</v>
+      </c>
+      <c r="J102" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>66</v>
+      </c>
+      <c r="B103" t="s">
+        <v>225</v>
+      </c>
+      <c r="J103" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>153</v>
+      </c>
+      <c r="B104" t="s">
+        <v>314</v>
+      </c>
+      <c r="J104" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" t="s">
+        <v>267</v>
+      </c>
+      <c r="J105" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>75</v>
+      </c>
+      <c r="B106" t="s">
+        <v>234</v>
+      </c>
+      <c r="J106" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>87</v>
+      </c>
+      <c r="B107" t="s">
+        <v>247</v>
+      </c>
+      <c r="J107" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>76</v>
+      </c>
+      <c r="B108" t="s">
+        <v>235</v>
+      </c>
+      <c r="J108" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>88</v>
+      </c>
+      <c r="B109" t="s">
+        <v>248</v>
+      </c>
+      <c r="J109" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>71</v>
+      </c>
+      <c r="B110" t="s">
+        <v>230</v>
+      </c>
+      <c r="J110" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>72</v>
+      </c>
+      <c r="B111" t="s">
+        <v>231</v>
+      </c>
+      <c r="J111" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>83</v>
+      </c>
+      <c r="B112" t="s">
+        <v>242</v>
+      </c>
+      <c r="J112" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>95</v>
+      </c>
+      <c r="B113" t="s">
+        <v>255</v>
+      </c>
+      <c r="J113" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>81</v>
+      </c>
+      <c r="B114" t="s">
+        <v>240</v>
+      </c>
+      <c r="J114" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>93</v>
+      </c>
+      <c r="B115" t="s">
+        <v>253</v>
+      </c>
+      <c r="J115" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>82</v>
+      </c>
+      <c r="B116" t="s">
+        <v>241</v>
+      </c>
+      <c r="J116" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>94</v>
+      </c>
+      <c r="B117" t="s">
+        <v>254</v>
+      </c>
+      <c r="J117" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>73</v>
+      </c>
+      <c r="B118" t="s">
+        <v>232</v>
+      </c>
+      <c r="J118" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>74</v>
+      </c>
+      <c r="B119" t="s">
+        <v>233</v>
+      </c>
+      <c r="J119" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>80</v>
+      </c>
+      <c r="B120" t="s">
+        <v>239</v>
+      </c>
+      <c r="J120" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>92</v>
+      </c>
+      <c r="B121" t="s">
+        <v>252</v>
+      </c>
+      <c r="J121" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>77</v>
+      </c>
+      <c r="B122" t="s">
+        <v>236</v>
+      </c>
+      <c r="J122" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>89</v>
+      </c>
+      <c r="B123" t="s">
+        <v>249</v>
+      </c>
+      <c r="J123" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>36</v>
+      </c>
+      <c r="B124" t="s">
+        <v>37</v>
+      </c>
+      <c r="J124" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>42</v>
+      </c>
+      <c r="B125" t="s">
+        <v>41</v>
+      </c>
+      <c r="J125" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>39</v>
+      </c>
+      <c r="B126" t="s">
+        <v>244</v>
+      </c>
+      <c r="J126" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>43</v>
+      </c>
+      <c r="B127" t="s">
+        <v>257</v>
+      </c>
+      <c r="J127" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>86</v>
+      </c>
+      <c r="B128" t="s">
+        <v>246</v>
+      </c>
+      <c r="J128" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>98</v>
+      </c>
+      <c r="B129" t="s">
+        <v>259</v>
+      </c>
+      <c r="J129" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>79</v>
+      </c>
+      <c r="B130" t="s">
+        <v>238</v>
+      </c>
+      <c r="J130" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>91</v>
+      </c>
+      <c r="B131" t="s">
+        <v>251</v>
+      </c>
+      <c r="J131" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>78</v>
+      </c>
+      <c r="B132" t="s">
+        <v>237</v>
+      </c>
+      <c r="J132" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>90</v>
+      </c>
+      <c r="B133" t="s">
+        <v>250</v>
+      </c>
+      <c r="J133" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>84</v>
+      </c>
+      <c r="B134" t="s">
+        <v>243</v>
+      </c>
+      <c r="J134" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>96</v>
+      </c>
+      <c r="B135" t="s">
+        <v>256</v>
+      </c>
+      <c r="J135" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>85</v>
+      </c>
+      <c r="B136" t="s">
+        <v>245</v>
+      </c>
+      <c r="J136" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>97</v>
+      </c>
+      <c r="B137" t="s">
+        <v>258</v>
+      </c>
+      <c r="J137" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>154</v>
+      </c>
+      <c r="B138" t="s">
+        <v>315</v>
+      </c>
+      <c r="J138" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>155</v>
+      </c>
+      <c r="B139" t="s">
+        <v>316</v>
+      </c>
+      <c r="J139" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>156</v>
+      </c>
+      <c r="B140" t="s">
+        <v>317</v>
+      </c>
+      <c r="J140" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>157</v>
+      </c>
+      <c r="B141" t="s">
+        <v>318</v>
+      </c>
+      <c r="J141" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>158</v>
+      </c>
+      <c r="B142" t="s">
+        <v>319</v>
+      </c>
+      <c r="J142" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>173</v>
+      </c>
+      <c r="B143" t="s">
+        <v>334</v>
+      </c>
+      <c r="J143" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>175</v>
+      </c>
+      <c r="B144" t="s">
+        <v>336</v>
+      </c>
+      <c r="J144" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>174</v>
+      </c>
+      <c r="B145" t="s">
+        <v>335</v>
+      </c>
+      <c r="J145" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>176</v>
+      </c>
+      <c r="B146" t="s">
+        <v>337</v>
+      </c>
+      <c r="J146" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>169</v>
+      </c>
+      <c r="B147" t="s">
+        <v>330</v>
+      </c>
+      <c r="J147" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>170</v>
+      </c>
+      <c r="B148" t="s">
+        <v>331</v>
+      </c>
+      <c r="J148" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>171</v>
+      </c>
+      <c r="B149" t="s">
+        <v>332</v>
+      </c>
+      <c r="J149" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>172</v>
+      </c>
+      <c r="B150" t="s">
+        <v>333</v>
+      </c>
+      <c r="J150" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>168</v>
+      </c>
+      <c r="B151" t="s">
+        <v>329</v>
+      </c>
+      <c r="J151" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>166</v>
+      </c>
+      <c r="B152" t="s">
+        <v>327</v>
+      </c>
+      <c r="J152" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>159</v>
+      </c>
+      <c r="B153" t="s">
+        <v>320</v>
+      </c>
+      <c r="J153" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>160</v>
+      </c>
+      <c r="B154" t="s">
+        <v>321</v>
+      </c>
+      <c r="J154" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>161</v>
+      </c>
+      <c r="B155" t="s">
+        <v>322</v>
+      </c>
+      <c r="J155" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>162</v>
+      </c>
+      <c r="B156" t="s">
+        <v>323</v>
+      </c>
+      <c r="J156" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>164</v>
+      </c>
+      <c r="B157" t="s">
+        <v>325</v>
+      </c>
+      <c r="J157" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>165</v>
+      </c>
+      <c r="B158" t="s">
+        <v>326</v>
+      </c>
+      <c r="J158" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>167</v>
+      </c>
+      <c r="B159" t="s">
+        <v>328</v>
+      </c>
+      <c r="J159" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160" t="s">
+        <v>324</v>
+      </c>
+      <c r="J160" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>177</v>
+      </c>
+      <c r="B161" t="s">
+        <v>338</v>
+      </c>
+      <c r="J161" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>180</v>
+      </c>
+      <c r="B162" t="s">
+        <v>341</v>
+      </c>
+      <c r="J162" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>181</v>
+      </c>
+      <c r="B163" t="s">
+        <v>342</v>
+      </c>
+      <c r="J163" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>30</v>
+      </c>
+      <c r="B164" t="s">
+        <v>31</v>
+      </c>
+      <c r="J164" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>178</v>
+      </c>
+      <c r="B165" t="s">
+        <v>339</v>
+      </c>
+      <c r="J165" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>179</v>
+      </c>
+      <c r="B166" t="s">
+        <v>340</v>
+      </c>
+      <c r="J166" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>152</v>
+      </c>
+      <c r="B167" t="s">
+        <v>313</v>
+      </c>
+      <c r="J167" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>150</v>
+      </c>
+      <c r="B168" t="s">
+        <v>311</v>
+      </c>
+      <c r="J168" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>186</v>
+      </c>
+      <c r="B169" t="s">
+        <v>347</v>
+      </c>
+      <c r="J169" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>187</v>
+      </c>
+      <c r="B170" t="s">
+        <v>348</v>
+      </c>
+      <c r="J170" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>57</v>
+      </c>
+      <c r="B171" t="s">
+        <v>215</v>
+      </c>
+      <c r="J171" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G238">
+    <sortCondition ref="A3:A238"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Tables/table_for_params_new_VMU.xlsx
+++ b/Tables/table_for_params_new_VMU.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Сборная солянка" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="371">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -248,9 +248,6 @@
     <t xml:space="preserve">0x216004</t>
   </si>
   <si>
-    <t xml:space="preserve">SIGNED32</t>
-  </si>
-  <si>
     <t xml:space="preserve">FLOAT</t>
   </si>
   <si>
@@ -338,6 +335,9 @@
     <t xml:space="preserve">0x212003</t>
   </si>
   <si>
+    <t xml:space="preserve">мс</t>
+  </si>
+  <si>
     <t xml:space="preserve">SYSTEM_BKU_ONLINE</t>
   </si>
   <si>
@@ -378,6 +378,9 @@
   </si>
   <si>
     <t xml:space="preserve">0x211806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дбар</t>
   </si>
   <si>
     <t xml:space="preserve">BRAKE_CURVE_PRESSURE_2</t>
@@ -1335,7 +1338,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1557,12 +1560,12 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.54"/>
   </cols>
   <sheetData>
@@ -1701,7 +1704,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="A5:B5 D17"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1710,7 +1713,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.54"/>
   </cols>
   <sheetData>
@@ -1910,7 +1913,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="A5:B5 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2080,22 +2083,24 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M6" activeCellId="1" sqref="A5:B5 M6"/>
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2166,18 +2171,18 @@
         <v>72</v>
       </c>
       <c r="J4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>76</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>23</v>
@@ -2185,10 +2190,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>78</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>23</v>
@@ -2196,10 +2201,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>79</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>80</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>23</v>
@@ -2207,10 +2212,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>82</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>23</v>
@@ -2218,10 +2223,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>83</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>84</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>56</v>
@@ -2229,10 +2234,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>86</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>56</v>
@@ -2240,24 +2245,24 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>88</v>
-      </c>
       <c r="J11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>90</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>23</v>
@@ -2282,22 +2287,24 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="1" sqref="A5:B5 F11"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2340,10 +2347,16 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>92</v>
+      <c r="D2" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>56</v>
@@ -2351,10 +2364,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>94</v>
+      <c r="D3" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>56</v>
@@ -2362,10 +2381,16 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>96</v>
+      <c r="D4" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>56</v>
@@ -2378,16 +2403,28 @@
       <c r="B5" s="0" t="s">
         <v>58</v>
       </c>
+      <c r="D5" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="J5" s="0" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>98</v>
+      <c r="D6" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>56</v>
@@ -2395,10 +2432,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>100</v>
+      <c r="D7" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>56</v>
@@ -2406,9 +2449,12 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>102</v>
       </c>
       <c r="J8" s="0" t="s">
@@ -2477,23 +2523,25 @@
   </sheetPr>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="1" sqref="A5:B5 A20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2541,6 +2589,13 @@
       <c r="B2" s="0" t="s">
         <v>112</v>
       </c>
+      <c r="D2" s="0" t="n">
+        <f aca="false">100/255</f>
+        <v>0.392156862745098</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>48</v>
+      </c>
       <c r="J2" s="0" t="s">
         <v>56</v>
       </c>
@@ -2552,6 +2607,13 @@
       <c r="B3" s="0" t="s">
         <v>114</v>
       </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">100/255</f>
+        <v>0.392156862745098</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>48</v>
+      </c>
       <c r="J3" s="0" t="s">
         <v>56</v>
       </c>
@@ -2563,16 +2625,22 @@
       <c r="B4" s="0" t="s">
         <v>116</v>
       </c>
+      <c r="F4" s="0" t="s">
+        <v>117</v>
+      </c>
       <c r="J4" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>118</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>23</v>
@@ -2580,10 +2648,13 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>117</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>23</v>
@@ -2591,10 +2662,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>117</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>23</v>
@@ -2602,10 +2676,13 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>117</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>23</v>
@@ -2613,10 +2690,13 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>102</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>56</v>
@@ -2624,10 +2704,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>102</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>56</v>
@@ -2635,10 +2718,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>102</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>56</v>
@@ -2646,10 +2732,13 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>102</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>56</v>
@@ -2657,10 +2746,13 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>102</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>56</v>
@@ -2684,13 +2776,13 @@
   </sheetPr>
   <dimension ref="A1:J171"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.89"/>
@@ -2699,7 +2791,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2713,13 +2805,13 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -2757,15 +2849,15 @@
         <v>72</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>76</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>23</v>
@@ -2773,10 +2865,10 @@
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>78</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>23</v>
@@ -2784,10 +2876,10 @@
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>79</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>80</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>23</v>
@@ -2795,10 +2887,10 @@
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>82</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>23</v>
@@ -2806,10 +2898,10 @@
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>83</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>84</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>56</v>
@@ -2817,10 +2909,10 @@
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>86</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>56</v>
@@ -2828,21 +2920,21 @@
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>88</v>
-      </c>
       <c r="J12" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>90</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>23</v>
@@ -2850,10 +2942,10 @@
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>23</v>
@@ -2861,10 +2953,10 @@
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>23</v>
@@ -2872,10 +2964,10 @@
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>56</v>
@@ -2883,10 +2975,10 @@
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>56</v>
@@ -2894,10 +2986,10 @@
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>56</v>
@@ -2905,10 +2997,10 @@
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>56</v>
@@ -2916,10 +3008,10 @@
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>56</v>
@@ -2927,10 +3019,10 @@
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>56</v>
@@ -2938,10 +3030,10 @@
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J22" s="0" t="s">
         <v>23</v>
@@ -2949,10 +3041,10 @@
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>23</v>
@@ -2993,10 +3085,10 @@
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>23</v>
@@ -3004,10 +3096,10 @@
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>23</v>
@@ -3015,10 +3107,10 @@
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>23</v>
@@ -3026,10 +3118,10 @@
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>23</v>
@@ -3037,10 +3129,10 @@
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>56</v>
@@ -3048,10 +3140,10 @@
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>56</v>
@@ -3059,10 +3151,10 @@
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>56</v>
@@ -3070,10 +3162,10 @@
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>56</v>
@@ -3081,10 +3173,10 @@
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>56</v>
@@ -3092,10 +3184,10 @@
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>23</v>
@@ -3103,10 +3195,10 @@
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>23</v>
@@ -3114,10 +3206,10 @@
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>23</v>
@@ -3125,10 +3217,10 @@
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>56</v>
@@ -3136,10 +3228,10 @@
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J40" s="0" t="s">
         <v>56</v>
@@ -3147,10 +3239,10 @@
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>56</v>
@@ -3158,10 +3250,10 @@
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>56</v>
@@ -3169,10 +3261,10 @@
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>23</v>
@@ -3180,10 +3272,10 @@
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J44" s="0" t="s">
         <v>56</v>
@@ -3191,10 +3283,10 @@
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J45" s="0" t="s">
         <v>56</v>
@@ -3202,10 +3294,10 @@
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J46" s="0" t="s">
         <v>56</v>
@@ -3213,10 +3305,10 @@
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>56</v>
@@ -3224,10 +3316,10 @@
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J48" s="0" t="s">
         <v>56</v>
@@ -3235,10 +3327,10 @@
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>56</v>
@@ -3246,10 +3338,10 @@
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>56</v>
@@ -3257,10 +3349,10 @@
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J51" s="0" t="s">
         <v>56</v>
@@ -3268,10 +3360,10 @@
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J52" s="0" t="s">
         <v>56</v>
@@ -3279,10 +3371,10 @@
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J53" s="0" t="s">
         <v>56</v>
@@ -3290,10 +3382,10 @@
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J54" s="0" t="s">
         <v>56</v>
@@ -3301,10 +3393,10 @@
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J55" s="0" t="s">
         <v>56</v>
@@ -3312,10 +3404,10 @@
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J56" s="0" t="s">
         <v>23</v>
@@ -3323,21 +3415,21 @@
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J58" s="0" t="s">
         <v>56</v>
@@ -3345,10 +3437,10 @@
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J59" s="0" t="s">
         <v>56</v>
@@ -3356,10 +3448,10 @@
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J60" s="0" t="s">
         <v>56</v>
@@ -3367,10 +3459,10 @@
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J61" s="0" t="s">
         <v>56</v>
@@ -3378,32 +3470,32 @@
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J64" s="0" t="s">
         <v>23</v>
@@ -3411,10 +3503,10 @@
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J65" s="0" t="s">
         <v>23</v>
@@ -3422,10 +3514,10 @@
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J66" s="0" t="s">
         <v>23</v>
@@ -3433,10 +3525,10 @@
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J67" s="0" t="s">
         <v>23</v>
@@ -3444,10 +3536,10 @@
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J68" s="0" t="s">
         <v>23</v>
@@ -3455,10 +3547,10 @@
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J69" s="0" t="s">
         <v>56</v>
@@ -3466,10 +3558,10 @@
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J70" s="0" t="s">
         <v>23</v>
@@ -3477,10 +3569,10 @@
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J71" s="0" t="s">
         <v>23</v>
@@ -3488,10 +3580,10 @@
     </row>
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J72" s="0" t="s">
         <v>56</v>
@@ -3499,10 +3591,10 @@
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J73" s="0" t="s">
         <v>56</v>
@@ -3510,10 +3602,10 @@
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J74" s="0" t="s">
         <v>23</v>
@@ -3521,10 +3613,10 @@
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J75" s="0" t="s">
         <v>56</v>
@@ -3532,10 +3624,10 @@
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J76" s="0" t="s">
         <v>56</v>
@@ -3543,10 +3635,10 @@
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J77" s="0" t="s">
         <v>23</v>
@@ -3554,10 +3646,10 @@
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J78" s="0" t="s">
         <v>23</v>
@@ -3565,10 +3657,10 @@
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J79" s="0" t="s">
         <v>56</v>
@@ -3587,21 +3679,21 @@
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J82" s="0" t="s">
         <v>56</v>
@@ -3609,10 +3701,10 @@
     </row>
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J83" s="0" t="s">
         <v>23</v>
@@ -3620,10 +3712,10 @@
     </row>
     <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J84" s="0" t="s">
         <v>23</v>
@@ -3634,7 +3726,7 @@
         <v>52</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J85" s="0" t="s">
         <v>23</v>
@@ -3642,21 +3734,21 @@
     </row>
     <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J87" s="0" t="s">
         <v>15</v>
@@ -3697,10 +3789,10 @@
     </row>
     <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J91" s="0" t="s">
         <v>23</v>
@@ -3708,10 +3800,10 @@
     </row>
     <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J92" s="0" t="s">
         <v>23</v>
@@ -3719,10 +3811,10 @@
     </row>
     <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J93" s="0" t="s">
         <v>15</v>
@@ -3730,10 +3822,10 @@
     </row>
     <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J94" s="0" t="s">
         <v>23</v>
@@ -3741,10 +3833,10 @@
     </row>
     <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J95" s="0" t="s">
         <v>23</v>
@@ -3752,10 +3844,10 @@
     </row>
     <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J96" s="0" t="s">
         <v>19</v>
@@ -3763,10 +3855,10 @@
     </row>
     <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J97" s="0" t="s">
         <v>56</v>
@@ -3774,10 +3866,10 @@
     </row>
     <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J98" s="0" t="s">
         <v>56</v>
@@ -3785,13 +3877,13 @@
     </row>
     <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3807,10 +3899,10 @@
     </row>
     <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J101" s="0" t="s">
         <v>23</v>
@@ -3829,10 +3921,10 @@
     </row>
     <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J103" s="0" t="s">
         <v>56</v>
@@ -3840,21 +3932,21 @@
     </row>
     <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J104" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J105" s="0" t="s">
         <v>23</v>
@@ -3862,54 +3954,54 @@
     </row>
     <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J106" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J107" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J109" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J110" s="0" t="s">
         <v>15</v>
@@ -3917,10 +4009,10 @@
     </row>
     <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J111" s="0" t="s">
         <v>15</v>
@@ -3928,10 +4020,10 @@
     </row>
     <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J112" s="0" t="s">
         <v>23</v>
@@ -3939,10 +4031,10 @@
     </row>
     <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J113" s="0" t="s">
         <v>23</v>
@@ -3950,10 +4042,10 @@
     </row>
     <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J114" s="0" t="s">
         <v>15</v>
@@ -3961,10 +4053,10 @@
     </row>
     <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J115" s="0" t="s">
         <v>15</v>
@@ -3972,10 +4064,10 @@
     </row>
     <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J116" s="0" t="s">
         <v>15</v>
@@ -3983,10 +4075,10 @@
     </row>
     <row r="117" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J117" s="0" t="s">
         <v>15</v>
@@ -3994,10 +4086,10 @@
     </row>
     <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J118" s="0" t="s">
         <v>56</v>
@@ -4005,10 +4097,10 @@
     </row>
     <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J119" s="0" t="s">
         <v>23</v>
@@ -4016,10 +4108,10 @@
     </row>
     <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J120" s="0" t="s">
         <v>15</v>
@@ -4027,10 +4119,10 @@
     </row>
     <row r="121" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J121" s="0" t="s">
         <v>15</v>
@@ -4038,10 +4130,10 @@
     </row>
     <row r="122" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J122" s="0" t="s">
         <v>15</v>
@@ -4049,10 +4141,10 @@
     </row>
     <row r="123" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J123" s="0" t="s">
         <v>15</v>
@@ -4085,7 +4177,7 @@
         <v>29</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J126" s="0" t="s">
         <v>15</v>
@@ -4096,7 +4188,7 @@
         <v>32</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J127" s="0" t="s">
         <v>15</v>
@@ -4104,10 +4196,10 @@
     </row>
     <row r="128" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J128" s="0" t="s">
         <v>23</v>
@@ -4115,10 +4207,10 @@
     </row>
     <row r="129" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J129" s="0" t="s">
         <v>23</v>
@@ -4126,10 +4218,10 @@
     </row>
     <row r="130" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J130" s="0" t="s">
         <v>23</v>
@@ -4137,10 +4229,10 @@
     </row>
     <row r="131" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J131" s="0" t="s">
         <v>23</v>
@@ -4148,10 +4240,10 @@
     </row>
     <row r="132" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J132" s="0" t="s">
         <v>23</v>
@@ -4159,10 +4251,10 @@
     </row>
     <row r="133" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J133" s="0" t="s">
         <v>23</v>
@@ -4170,10 +4262,10 @@
     </row>
     <row r="134" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J134" s="0" t="s">
         <v>23</v>
@@ -4181,10 +4273,10 @@
     </row>
     <row r="135" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J135" s="0" t="s">
         <v>23</v>
@@ -4214,10 +4306,10 @@
     </row>
     <row r="138" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J138" s="0" t="s">
         <v>23</v>
@@ -4269,10 +4361,10 @@
     </row>
     <row r="143" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J143" s="0" t="s">
         <v>56</v>
@@ -4280,10 +4372,10 @@
     </row>
     <row r="144" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J144" s="0" t="s">
         <v>56</v>
@@ -4291,10 +4383,10 @@
     </row>
     <row r="145" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J145" s="0" t="s">
         <v>56</v>
@@ -4302,10 +4394,10 @@
     </row>
     <row r="146" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J146" s="0" t="s">
         <v>56</v>
@@ -4313,10 +4405,10 @@
     </row>
     <row r="147" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J147" s="0" t="s">
         <v>23</v>
@@ -4324,10 +4416,10 @@
     </row>
     <row r="148" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J148" s="0" t="s">
         <v>23</v>
@@ -4335,10 +4427,10 @@
     </row>
     <row r="149" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J149" s="0" t="s">
         <v>23</v>
@@ -4346,10 +4438,10 @@
     </row>
     <row r="150" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J150" s="0" t="s">
         <v>23</v>
@@ -4357,10 +4449,10 @@
     </row>
     <row r="151" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J151" s="0" t="s">
         <v>23</v>
@@ -4368,10 +4460,10 @@
     </row>
     <row r="152" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J152" s="0" t="s">
         <v>56</v>
@@ -4423,10 +4515,10 @@
     </row>
     <row r="157" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J157" s="0" t="s">
         <v>56</v>
@@ -4434,10 +4526,10 @@
     </row>
     <row r="158" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J158" s="0" t="s">
         <v>56</v>
@@ -4445,10 +4537,10 @@
     </row>
     <row r="159" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J159" s="0" t="s">
         <v>23</v>
@@ -4456,21 +4548,21 @@
     </row>
     <row r="160" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="J160" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B161" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="B161" s="0" t="s">
-        <v>92</v>
       </c>
       <c r="J161" s="0" t="s">
         <v>56</v>
@@ -4478,10 +4570,10 @@
     </row>
     <row r="162" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B162" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="B162" s="0" t="s">
-        <v>94</v>
       </c>
       <c r="J162" s="0" t="s">
         <v>56</v>
@@ -4489,10 +4581,10 @@
     </row>
     <row r="163" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B163" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="B163" s="0" t="s">
-        <v>96</v>
       </c>
       <c r="J163" s="0" t="s">
         <v>56</v>
@@ -4511,10 +4603,10 @@
     </row>
     <row r="165" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B165" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="B165" s="0" t="s">
-        <v>98</v>
       </c>
       <c r="J165" s="0" t="s">
         <v>56</v>
@@ -4522,10 +4614,10 @@
     </row>
     <row r="166" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B166" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="B166" s="0" t="s">
-        <v>100</v>
       </c>
       <c r="J166" s="0" t="s">
         <v>56</v>
@@ -4533,10 +4625,10 @@
     </row>
     <row r="167" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B167" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="B167" s="0" t="s">
-        <v>102</v>
       </c>
       <c r="J167" s="0" t="s">
         <v>56</v>

--- a/Tables/table_for_params_new_VMU.xlsx
+++ b/Tables/table_for_params_new_VMU.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Сборная солянка" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,7 @@
     <sheet name="Система" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Тормоза1" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Все параметры" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Параметры инвертора МЭИ" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="404">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -1140,6 +1141,105 @@
   </si>
   <si>
     <t xml:space="preserve">0x21300A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Непосредственно МЭИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Время работы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x002000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сек</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Состояние </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x002001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ошибки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x002002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Напряжение ЗПТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x002003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потребляемый ток</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x002004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ток обмотки возбуждения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x002005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ток Is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x002006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ток фазы А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x002007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ток фазы В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x002008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ток фазы С</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x002009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ток Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x00200a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ток Iq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x00200b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Температура фазы А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Температура фазы В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Температура фазы С</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Температура воздуха</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Температура </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Температура ОВ</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1333,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1256,6 +1356,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1338,7 +1442,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2523,7 +2627,7 @@
   </sheetPr>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2776,8 +2880,8 @@
   </sheetPr>
   <dimension ref="A1:J171"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4692,4 +4796,252 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.35"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>403</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Tables/table_for_params_new_VMU.xlsx
+++ b/Tables/table_for_params_new_VMU.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Сборная солянка" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,6 +17,7 @@
     <sheet name="Тормоза1" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Все параметры" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Параметры инвертора МЭИ" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Инвертор МЭИ" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="426">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -1149,7 +1150,7 @@
     <t xml:space="preserve">Время работы</t>
   </si>
   <si>
-    <t xml:space="preserve">0x002000</t>
+    <t xml:space="preserve">0x200000</t>
   </si>
   <si>
     <t xml:space="preserve">сек</t>
@@ -1158,7 +1159,7 @@
     <t xml:space="preserve">Состояние </t>
   </si>
   <si>
-    <t xml:space="preserve">0x002001</t>
+    <t xml:space="preserve">0x200001</t>
   </si>
   <si>
     <t xml:space="preserve">LIST</t>
@@ -1167,79 +1168,145 @@
     <t xml:space="preserve">Ошибки</t>
   </si>
   <si>
-    <t xml:space="preserve">0x002002</t>
+    <t xml:space="preserve">0x200002</t>
   </si>
   <si>
     <t xml:space="preserve">Напряжение ЗПТ</t>
   </si>
   <si>
-    <t xml:space="preserve">0x002003</t>
+    <t xml:space="preserve">0x200003</t>
   </si>
   <si>
     <t xml:space="preserve">Потребляемый ток</t>
   </si>
   <si>
-    <t xml:space="preserve">0x002004</t>
+    <t xml:space="preserve">0x200004</t>
   </si>
   <si>
     <t xml:space="preserve">Ток обмотки возбуждения</t>
   </si>
   <si>
-    <t xml:space="preserve">0x002005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ток Is</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x002006</t>
+    <t xml:space="preserve">0x200005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ток статора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200006</t>
   </si>
   <si>
     <t xml:space="preserve">Ток фазы А</t>
   </si>
   <si>
-    <t xml:space="preserve">0x002007</t>
+    <t xml:space="preserve">0x200007</t>
   </si>
   <si>
     <t xml:space="preserve">Ток фазы В</t>
   </si>
   <si>
-    <t xml:space="preserve">0x002008</t>
+    <t xml:space="preserve">0x200008</t>
   </si>
   <si>
     <t xml:space="preserve">Ток фазы С</t>
   </si>
   <si>
-    <t xml:space="preserve">0x002009</t>
+    <t xml:space="preserve">0x200009</t>
   </si>
   <si>
     <t xml:space="preserve">Ток Id</t>
   </si>
   <si>
-    <t xml:space="preserve">0x00200a</t>
+    <t xml:space="preserve">0x20000a</t>
   </si>
   <si>
     <t xml:space="preserve">Ток Iq</t>
   </si>
   <si>
-    <t xml:space="preserve">0x00200b</t>
+    <t xml:space="preserve">0x20000b</t>
   </si>
   <si>
     <t xml:space="preserve">Температура фазы А</t>
   </si>
   <si>
+    <t xml:space="preserve">0x20000c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°C</t>
+  </si>
+  <si>
     <t xml:space="preserve">Температура фазы В</t>
   </si>
   <si>
+    <t xml:space="preserve">0x20000d</t>
+  </si>
+  <si>
     <t xml:space="preserve">Температура фазы С</t>
   </si>
   <si>
+    <t xml:space="preserve">0x20000e</t>
+  </si>
+  <si>
     <t xml:space="preserve">Температура воздуха</t>
   </si>
   <si>
-    <t xml:space="preserve">Температура </t>
+    <t xml:space="preserve">0x20000f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Температура статора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200010</t>
   </si>
   <si>
     <t xml:space="preserve">Температура ОВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gamma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Скорость мотора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">об/мин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Момент</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мощность механическая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мощность электрическая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имя устройства</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Версия ПО</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1400,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1346,10 +1413,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1358,7 +1421,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1442,18 +1505,18 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:J21 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1491,7 +1554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1509,7 +1572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1527,7 +1590,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1545,63 +1608,63 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="0" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="0" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="0" t="s">
         <v>31</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="0" t="s">
         <v>31</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>34</v>
       </c>
@@ -1612,7 +1675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>36</v>
       </c>
@@ -1623,7 +1686,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>38</v>
       </c>
@@ -1634,7 +1697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>40</v>
       </c>
@@ -1643,6 +1706,351 @@
       </c>
       <c r="J12" s="0" t="s">
         <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1664,16 +2072,16 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1711,63 +2119,63 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="0" t="s">
         <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="0" t="s">
         <v>26</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="0" t="s">
         <v>31</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="0" t="s">
         <v>31</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>42</v>
       </c>
@@ -1778,7 +2186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>44</v>
       </c>
@@ -1808,20 +2216,20 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="A2:J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1859,7 +2267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
@@ -1869,14 +2277,14 @@
       <c r="D2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="0" t="s">
         <v>48</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1894,7 +2302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1912,7 +2320,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1930,7 +2338,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
@@ -1940,14 +2348,14 @@
       <c r="E6" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="0" t="s">
         <v>51</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>52</v>
       </c>
@@ -1957,14 +2365,14 @@
       <c r="E7" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="0" t="s">
         <v>51</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>54</v>
       </c>
@@ -1974,14 +2382,14 @@
       <c r="D8" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>57</v>
       </c>
@@ -1991,7 +2399,7 @@
       <c r="D9" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="0" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -2017,20 +2425,20 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="A2:J21 B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -2068,7 +2476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>34</v>
       </c>
@@ -2079,7 +2487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>36</v>
       </c>
@@ -2090,7 +2498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>38</v>
       </c>
@@ -2101,7 +2509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>40</v>
       </c>
@@ -2112,7 +2520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>59</v>
       </c>
@@ -2126,7 +2534,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>61</v>
       </c>
@@ -2140,7 +2548,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>63</v>
       </c>
@@ -2154,7 +2562,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>65</v>
       </c>
@@ -2187,27 +2595,27 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="A2:J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2245,7 +2653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>67</v>
       </c>
@@ -2256,7 +2664,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>69</v>
       </c>
@@ -2267,7 +2675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>71</v>
       </c>
@@ -2281,7 +2689,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>74</v>
       </c>
@@ -2292,7 +2700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>76</v>
       </c>
@@ -2303,7 +2711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>78</v>
       </c>
@@ -2314,7 +2722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>80</v>
       </c>
@@ -2325,7 +2733,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>82</v>
       </c>
@@ -2336,7 +2744,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>84</v>
       </c>
@@ -2347,7 +2755,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>86</v>
       </c>
@@ -2361,7 +2769,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>88</v>
       </c>
@@ -2391,27 +2799,27 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="A2:J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2449,7 +2857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>90</v>
       </c>
@@ -2466,7 +2874,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>92</v>
       </c>
@@ -2483,7 +2891,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>94</v>
       </c>
@@ -2500,7 +2908,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>57</v>
       </c>
@@ -2517,7 +2925,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>96</v>
       </c>
@@ -2534,7 +2942,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>98</v>
       </c>
@@ -2551,7 +2959,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>100</v>
       </c>
@@ -2565,7 +2973,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>103</v>
       </c>
@@ -2576,7 +2984,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>105</v>
       </c>
@@ -2587,7 +2995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>107</v>
       </c>
@@ -2598,7 +3006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>109</v>
       </c>
@@ -2628,27 +3036,27 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:J21 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2686,7 +3094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>111</v>
       </c>
@@ -2704,7 +3112,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>113</v>
       </c>
@@ -2722,7 +3130,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>115</v>
       </c>
@@ -2736,7 +3144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>118</v>
       </c>
@@ -2750,7 +3158,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>120</v>
       </c>
@@ -2764,7 +3172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>122</v>
       </c>
@@ -2778,7 +3186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>124</v>
       </c>
@@ -2792,7 +3200,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>126</v>
       </c>
@@ -2806,7 +3214,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>128</v>
       </c>
@@ -2820,7 +3228,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>130</v>
       </c>
@@ -2834,7 +3242,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>132</v>
       </c>
@@ -2848,7 +3256,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>134</v>
       </c>
@@ -2880,50 +3288,50 @@
   </sheetPr>
   <dimension ref="A1:J171"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="A2:J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>67</v>
       </c>
@@ -2934,7 +3342,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>69</v>
       </c>
@@ -2945,7 +3353,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>71</v>
       </c>
@@ -2956,7 +3364,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>74</v>
       </c>
@@ -2967,7 +3375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>76</v>
       </c>
@@ -2978,7 +3386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>78</v>
       </c>
@@ -2989,7 +3397,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>80</v>
       </c>
@@ -3000,7 +3408,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>82</v>
       </c>
@@ -3011,7 +3419,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>84</v>
       </c>
@@ -3022,7 +3430,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>86</v>
       </c>
@@ -3033,7 +3441,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>88</v>
       </c>
@@ -3044,7 +3452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>139</v>
       </c>
@@ -3055,7 +3463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>141</v>
       </c>
@@ -3066,7 +3474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>143</v>
       </c>
@@ -3077,7 +3485,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>145</v>
       </c>
@@ -3088,7 +3496,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>147</v>
       </c>
@@ -3099,7 +3507,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>149</v>
       </c>
@@ -3110,7 +3518,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>151</v>
       </c>
@@ -3121,7 +3529,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>153</v>
       </c>
@@ -3132,7 +3540,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>155</v>
       </c>
@@ -3143,7 +3551,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>157</v>
       </c>
@@ -3154,7 +3562,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>111</v>
       </c>
@@ -3165,7 +3573,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>113</v>
       </c>
@@ -3176,7 +3584,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>115</v>
       </c>
@@ -3187,7 +3595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>118</v>
       </c>
@@ -3198,7 +3606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>120</v>
       </c>
@@ -3209,7 +3617,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>122</v>
       </c>
@@ -3220,7 +3628,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>124</v>
       </c>
@@ -3231,7 +3639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>126</v>
       </c>
@@ -3242,7 +3650,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>128</v>
       </c>
@@ -3253,7 +3661,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>130</v>
       </c>
@@ -3264,7 +3672,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>132</v>
       </c>
@@ -3275,7 +3683,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>134</v>
       </c>
@@ -3286,7 +3694,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>159</v>
       </c>
@@ -3297,7 +3705,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>161</v>
       </c>
@@ -3308,7 +3716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>163</v>
       </c>
@@ -3319,7 +3727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>165</v>
       </c>
@@ -3330,7 +3738,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>167</v>
       </c>
@@ -3341,7 +3749,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>169</v>
       </c>
@@ -3352,7 +3760,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>171</v>
       </c>
@@ -3363,7 +3771,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>173</v>
       </c>
@@ -3374,7 +3782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>175</v>
       </c>
@@ -3385,7 +3793,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>177</v>
       </c>
@@ -3396,7 +3804,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>179</v>
       </c>
@@ -3407,7 +3815,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>181</v>
       </c>
@@ -3418,7 +3826,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>183</v>
       </c>
@@ -3429,7 +3837,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>185</v>
       </c>
@@ -3440,7 +3848,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>187</v>
       </c>
@@ -3451,7 +3859,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>189</v>
       </c>
@@ -3462,7 +3870,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>191</v>
       </c>
@@ -3473,7 +3881,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>193</v>
       </c>
@@ -3484,7 +3892,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>195</v>
       </c>
@@ -3495,7 +3903,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>197</v>
       </c>
@@ -3506,7 +3914,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>199</v>
       </c>
@@ -3517,7 +3925,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>201</v>
       </c>
@@ -3528,7 +3936,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>204</v>
       </c>
@@ -3539,7 +3947,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>206</v>
       </c>
@@ -3550,7 +3958,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>208</v>
       </c>
@@ -3561,7 +3969,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>210</v>
       </c>
@@ -3572,7 +3980,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>212</v>
       </c>
@@ -3583,7 +3991,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>214</v>
       </c>
@@ -3594,7 +4002,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>216</v>
       </c>
@@ -3605,7 +4013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>218</v>
       </c>
@@ -3616,7 +4024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>220</v>
       </c>
@@ -3627,7 +4035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>222</v>
       </c>
@@ -3638,7 +4046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>224</v>
       </c>
@@ -3649,7 +4057,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>226</v>
       </c>
@@ -3660,7 +4068,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>228</v>
       </c>
@@ -3671,7 +4079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>230</v>
       </c>
@@ -3682,7 +4090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>232</v>
       </c>
@@ -3693,7 +4101,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>234</v>
       </c>
@@ -3704,7 +4112,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>236</v>
       </c>
@@ -3715,7 +4123,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>238</v>
       </c>
@@ -3726,7 +4134,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>240</v>
       </c>
@@ -3737,7 +4145,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>242</v>
       </c>
@@ -3748,7 +4156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>244</v>
       </c>
@@ -3759,7 +4167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>246</v>
       </c>
@@ -3770,7 +4178,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>16</v>
       </c>
@@ -3781,7 +4189,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>248</v>
       </c>
@@ -3792,7 +4200,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>250</v>
       </c>
@@ -3803,7 +4211,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>252</v>
       </c>
@@ -3814,7 +4222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>254</v>
       </c>
@@ -3825,7 +4233,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>52</v>
       </c>
@@ -3836,7 +4244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>257</v>
       </c>
@@ -3847,7 +4255,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>259</v>
       </c>
@@ -3858,7 +4266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>12</v>
       </c>
@@ -3869,7 +4277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>49</v>
       </c>
@@ -3880,7 +4288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>54</v>
       </c>
@@ -3891,7 +4299,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>261</v>
       </c>
@@ -3902,7 +4310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>263</v>
       </c>
@@ -3913,7 +4321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>265</v>
       </c>
@@ -3924,7 +4332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>267</v>
       </c>
@@ -3935,7 +4343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>269</v>
       </c>
@@ -3946,7 +4354,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>271</v>
       </c>
@@ -3957,7 +4365,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>273</v>
       </c>
@@ -3968,7 +4376,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>275</v>
       </c>
@@ -3979,7 +4387,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>277</v>
       </c>
@@ -3990,7 +4398,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>46</v>
       </c>
@@ -4001,7 +4409,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>279</v>
       </c>
@@ -4012,7 +4420,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>20</v>
       </c>
@@ -4023,7 +4431,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>281</v>
       </c>
@@ -4034,7 +4442,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>283</v>
       </c>
@@ -4045,7 +4453,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>285</v>
       </c>
@@ -4056,7 +4464,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>287</v>
       </c>
@@ -4067,7 +4475,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>289</v>
       </c>
@@ -4078,7 +4486,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>291</v>
       </c>
@@ -4089,7 +4497,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>293</v>
       </c>
@@ -4100,7 +4508,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>295</v>
       </c>
@@ -4111,7 +4519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>297</v>
       </c>
@@ -4122,7 +4530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>299</v>
       </c>
@@ -4133,7 +4541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>301</v>
       </c>
@@ -4144,7 +4552,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>303</v>
       </c>
@@ -4155,7 +4563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>305</v>
       </c>
@@ -4166,7 +4574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>307</v>
       </c>
@@ -4177,7 +4585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>309</v>
       </c>
@@ -4188,7 +4596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>311</v>
       </c>
@@ -4199,7 +4607,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>313</v>
       </c>
@@ -4210,7 +4618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>315</v>
       </c>
@@ -4221,7 +4629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>317</v>
       </c>
@@ -4232,7 +4640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>319</v>
       </c>
@@ -4243,7 +4651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>321</v>
       </c>
@@ -4254,7 +4662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>24</v>
       </c>
@@ -4265,7 +4673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>27</v>
       </c>
@@ -4276,7 +4684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>29</v>
       </c>
@@ -4287,7 +4695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
         <v>32</v>
       </c>
@@ -4298,7 +4706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>325</v>
       </c>
@@ -4309,7 +4717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
         <v>327</v>
       </c>
@@ -4320,7 +4728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
         <v>329</v>
       </c>
@@ -4331,7 +4739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
         <v>331</v>
       </c>
@@ -4342,7 +4750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>333</v>
       </c>
@@ -4353,7 +4761,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>335</v>
       </c>
@@ -4364,7 +4772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>337</v>
       </c>
@@ -4375,7 +4783,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
         <v>339</v>
       </c>
@@ -4386,7 +4794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
         <v>42</v>
       </c>
@@ -4397,7 +4805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
         <v>44</v>
       </c>
@@ -4408,7 +4816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
         <v>341</v>
       </c>
@@ -4419,7 +4827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
         <v>34</v>
       </c>
@@ -4430,7 +4838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
         <v>36</v>
       </c>
@@ -4441,7 +4849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
         <v>38</v>
       </c>
@@ -4452,7 +4860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
         <v>40</v>
       </c>
@@ -4463,7 +4871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
         <v>343</v>
       </c>
@@ -4474,7 +4882,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
         <v>345</v>
       </c>
@@ -4485,7 +4893,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
         <v>347</v>
       </c>
@@ -4496,7 +4904,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
         <v>349</v>
       </c>
@@ -4507,7 +4915,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
         <v>351</v>
       </c>
@@ -4518,7 +4926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
         <v>353</v>
       </c>
@@ -4529,7 +4937,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
         <v>355</v>
       </c>
@@ -4540,7 +4948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
         <v>357</v>
       </c>
@@ -4551,7 +4959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
         <v>359</v>
       </c>
@@ -4562,7 +4970,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
         <v>361</v>
       </c>
@@ -4573,7 +4981,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
         <v>59</v>
       </c>
@@ -4584,7 +4992,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>61</v>
       </c>
@@ -4595,7 +5003,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
         <v>63</v>
       </c>
@@ -4606,7 +5014,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>65</v>
       </c>
@@ -4617,7 +5025,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
         <v>363</v>
       </c>
@@ -4628,7 +5036,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
         <v>365</v>
       </c>
@@ -4639,7 +5047,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
         <v>367</v>
       </c>
@@ -4650,7 +5058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
         <v>369</v>
       </c>
@@ -4661,7 +5069,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
         <v>90</v>
       </c>
@@ -4672,7 +5080,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
         <v>92</v>
       </c>
@@ -4683,7 +5091,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
         <v>94</v>
       </c>
@@ -4694,7 +5102,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
         <v>57</v>
       </c>
@@ -4705,7 +5113,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
         <v>96</v>
       </c>
@@ -4716,7 +5124,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
         <v>98</v>
       </c>
@@ -4727,7 +5135,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
         <v>100</v>
       </c>
@@ -4738,7 +5146,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
         <v>103</v>
       </c>
@@ -4749,7 +5157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
         <v>105</v>
       </c>
@@ -4760,7 +5168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
         <v>107</v>
       </c>
@@ -4771,7 +5179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
         <v>109</v>
       </c>
@@ -4803,44 +5211,46 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A2:J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>372</v>
       </c>
@@ -4854,7 +5264,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>375</v>
       </c>
@@ -4865,7 +5275,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>378</v>
       </c>
@@ -4876,7 +5286,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>380</v>
       </c>
@@ -4890,7 +5300,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>382</v>
       </c>
@@ -4904,7 +5314,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>384</v>
       </c>
@@ -4918,7 +5328,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>386</v>
       </c>
@@ -4932,7 +5342,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>388</v>
       </c>
@@ -4946,7 +5356,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>390</v>
       </c>
@@ -4960,7 +5370,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>392</v>
       </c>
@@ -4974,7 +5384,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>394</v>
       </c>
@@ -4988,7 +5398,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>396</v>
       </c>
@@ -5002,34 +5412,173 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>401</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J16" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>405</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>407</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>403</v>
+        <v>409</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -5044,4 +5593,181 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FACACC03BC354D4CAE342DF0B523D936" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="acc35f771d010ed54e5385b9c8667819">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="da661f87-4919-47ab-b0bd-98cd15c2abf7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2566fbb5b17fe84ef74dcb1b9d9893e" ns2:_="">
+    <xsd:import namespace="da661f87-4919-47ab-b0bd-98cd15c2abf7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="da661f87-4919-47ab-b0bd-98cd15c2abf7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="11" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="12" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA367026-9BD2-4FC5-9407-03CEBC3D6654}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B069071-5319-4999-95CC-7D7594457929}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD894491-9E43-4E6F-B279-9C0B45285D90}"/>
 </file>
--- a/Tables/table_for_params_new_VMU.xlsx
+++ b/Tables/table_for_params_new_VMU.xlsx
@@ -5,19 +5,25 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
-    <sheet name="Сборная солянка" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Рули" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Инвертор" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Подвеска" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="АБС" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Система" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Тормоза1" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Все параметры" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Параметры инвертора МЭИ" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Инвертор МЭИ" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="КВУ_ТТС Сборная солянка" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="КВУ_ТТС Рули" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="КВУ_ТТС Инвертор" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="КВУ_ТТС Подвеска" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="КВУ_ТТС АБС" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="КВУ_ТТС Система" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="КВУ_ТТС Тормоза1" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="КВУ_ТТС Все параметры" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Инвертор_МЭИ Параметры" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Инвертор_МЭИ Настройка Двигатель" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Инвертор_МЭИ Настройка Модели" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Инвертор_МЭИ Инвертор МЭИ" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="nodes" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Рулевая_перед_Томск Все параметры" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Рулевая_зад_Томск Все параметры" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="КВУ_Цикл+ Все параметры" sheetId="16" state="visible" r:id="rId17"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="580">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -1306,18 +1312,481 @@
     <t xml:space="preserve">Имя устройства</t>
   </si>
   <si>
+    <t xml:space="preserve">0x100800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASCII</t>
+  </si>
+  <si>
     <t xml:space="preserve">Версия ПО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5FFF00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Версия сборки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5FFF01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Управление — первый байт 0х20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Высокое напряжение вкл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Высокое напряжение выкл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сброс устройства</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Калибровка ДПР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инвертировать вращение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сброс ошибок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Задать скорость мотора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Изменяемые параметры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Двигатель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уставка защиты от перегрева двигателя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уставка защиты от перегрева обмотки возбуждения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Температура включения вентилятора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Температура выключения вентилятора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Модель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тип управляющего задания</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент усиления пропорциональной составляющей регулятора скорости</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент усиления интегрирующей составляющей регулятора скорости</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент усиления пропорциональной составляющей регулятора тока Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент усиления интегрирующей составляющей регулятора тока Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент усиления пропорциональной составляющей регулятора тока Iq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент усиления интегрирующей составляющей регулятора тока Iq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент усиления пропорциональной составляющей регулятора тока возбуждения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент усиления интегрирующей составляющей регулятора тока возбуждения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимальный ток двигателя в двигательном режиме</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимальный ток двигателя в режиме торможения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x21010a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимальный ток возбуждения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x21010b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимальный момент в положительном направлении</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x21010c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимальный момент в отрицательном направлении</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x21010d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимальная скорость</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x21010e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">об/ мин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент усиления пропорциональной составляющей регулятора ослабления поля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x21010f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент усиления интегрирующей составляющей регулятора ослабления поля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ограничение выхода регулятора ослабления поля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инвертор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уставка защиты от понижения напряжения в ЗПТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уставка защиты от повышения напряжения в ЗПТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уставка защиты от превышения фазного тока</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уставка защиты от превышения тока возбуждения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уставка защиты от перегрева ключей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уставка защиты от перегрева инвертора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контакторы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Напряжение срабатывания основного контактора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимальное время ожидания нарастания напряжения в ЗПТ до уровня срабатывания основного контактора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Время выдержки от срабатывания основного контактора до отключения зарядного контактора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пороговое напряжение шины постоянного тока при отключении</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Время ожидания снижения напряжения до порогового уровня при отключении</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">req_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ans_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alive_mes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КВУ_Цикл+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x1850460E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x00000594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANOpen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КВУ_ТТС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x00000603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x00000583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инвертор_МЭИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x00000601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x00000581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инвертор_Цикл+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рулевая_перед_Томск</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x000004F5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x000004F7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODBUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рулевая_зад_Томск</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x000004F6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x000004F8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                           Все параметры старого кву                                                                                                      но это неточно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скорость ПП колеса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x520103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скорость ПЛ колеса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x520105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скорость ЗП колеса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x520107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скорость ЗЛ колеса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x520109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">заданный момент двигателя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5b110b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">реализованный момент двигателя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5b110c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ток Фазной Обмотки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5b110f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ток Обмотки Возбуждения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5b1110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">температура тягового двигателя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5b1113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°С</t>
+  </si>
+  <si>
+    <t xml:space="preserve">температура инвертора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5b1114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скорость двигателя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5b111A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мощность двигателя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5b111c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">положение рейки перед</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5b2106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ток рейки перед</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5b2107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">температура рейки перед</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5b2108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">положение рейки зад</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5b2206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ток рейки зад</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5b2207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">температура рейки зад</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5b2208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">напряжение ТАБ высокое </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5b2602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ток батареи ТАБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5b2603</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1351,8 +1820,43 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <name val="Tahoma"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1362,16 +1866,56 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE7E6E6"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFE7E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFD7"/>
+        <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -1400,7 +1944,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1421,8 +1965,76 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="1" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1437,7 +2049,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFE7E6E6"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -1454,12 +2066,12 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFFFFFD7"/>
+      <rgbColor rgb="FFE7E6E6"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1504,8 +2116,8 @@
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:J21 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1724,15 +2336,734 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:L1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="41.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="17" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="17" width="5.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="17" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="17" width="5.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="17" width="10.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="17" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="17" width="6.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="17" width="5.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="17" width="9.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="17" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>512</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
+      <c r="J5" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
+      <c r="J6" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="37.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="37.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
+      <c r="I18" s="0"/>
+      <c r="J18" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.54"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="J3" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="J4" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="J5" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="J6" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="J7" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="J8" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="J9" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="J10" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="J17" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="J18" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:J21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2064,6 +3395,587 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E43"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.09"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.73"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+    </row>
+    <row r="2" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>186413.511111111</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>186413.511111111</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>186413.511111111</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>186413.511111111</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>167772.16</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>167772.16</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>25811.1015384615</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>479349.028571429</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>838860.8</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>838860.8</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>2097.152</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>16777216</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>31068.9185185185</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>83886.08</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -2071,13 +3983,13 @@
   </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:J21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.57"/>
   </cols>
   <sheetData>
@@ -2215,17 +4127,17 @@
   </sheetPr>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="A2:J21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.57"/>
   </cols>
   <sheetData>
@@ -2424,8 +4336,8 @@
   </sheetPr>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="A2:J21 B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2594,15 +4506,15 @@
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="A2:J21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.43"/>
@@ -2798,15 +4710,15 @@
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="A2:J21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.43"/>
@@ -3035,15 +4947,15 @@
   </sheetPr>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:J21 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.43"/>
@@ -3288,8 +5200,8 @@
   </sheetPr>
   <dimension ref="A1:J171"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="A2:J21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B82" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J118" activeCellId="0" sqref="J118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5211,17 +7123,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A2:J21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="45.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.14"/>
@@ -5234,24 +7146,24 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>372</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -5264,8 +7176,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>375</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -5275,8 +7187,8 @@
         <v>377</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>378</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -5286,8 +7198,8 @@
         <v>377</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>380</v>
       </c>
       <c r="B5" s="0" t="s">
@@ -5300,8 +7212,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>382</v>
       </c>
       <c r="B6" s="0" t="s">
@@ -5314,8 +7226,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
         <v>384</v>
       </c>
       <c r="B7" s="0" t="s">
@@ -5328,8 +7240,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
         <v>386</v>
       </c>
       <c r="B8" s="0" t="s">
@@ -5342,8 +7254,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
         <v>388</v>
       </c>
       <c r="B9" s="0" t="s">
@@ -5356,8 +7268,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
         <v>390</v>
       </c>
       <c r="B10" s="0" t="s">
@@ -5370,8 +7282,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B11" s="0" t="s">
@@ -5384,8 +7296,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
         <v>394</v>
       </c>
       <c r="B12" s="0" t="s">
@@ -5398,8 +7310,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
         <v>396</v>
       </c>
       <c r="B13" s="0" t="s">
@@ -5412,8 +7324,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
         <v>398</v>
       </c>
       <c r="B14" s="0" t="s">
@@ -5426,8 +7338,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
         <v>401</v>
       </c>
       <c r="B15" s="0" t="s">
@@ -5440,8 +7352,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
         <v>403</v>
       </c>
       <c r="B16" s="0" t="s">
@@ -5454,8 +7366,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
         <v>405</v>
       </c>
       <c r="B17" s="0" t="s">
@@ -5468,8 +7380,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
         <v>407</v>
       </c>
       <c r="B18" s="0" t="s">
@@ -5482,8 +7394,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
         <v>409</v>
       </c>
       <c r="B19" s="0" t="s">
@@ -5496,8 +7408,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
         <v>411</v>
       </c>
       <c r="B20" s="0" t="s">
@@ -5510,8 +7422,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
         <v>413</v>
       </c>
       <c r="B21" s="0" t="s">
@@ -5524,8 +7436,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
         <v>416</v>
       </c>
       <c r="B22" s="0" t="s">
@@ -5538,8 +7450,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
         <v>419</v>
       </c>
       <c r="B23" s="0" t="s">
@@ -5552,8 +7464,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
         <v>422</v>
       </c>
       <c r="B24" s="0" t="s">
@@ -5566,24 +7478,618 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="B25" s="0" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>425</v>
+      <c r="J25" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="J43" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="J44" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="J45" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="J46" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="J47" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="J48" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="J49" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="J50" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="J51" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="F58" s="10"/>
+      <c r="J58" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="F59" s="10"/>
+      <c r="J59" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="B70" s="10"/>
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="37.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A36:J36"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Tables/table_for_params_new_VMU.xlsx
+++ b/Tables/table_for_params_new_VMU.xlsx
@@ -5,17 +5,25 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
-    <sheet name="Сборная солянка" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Рули" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Инвертор" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Подвеска" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="АБС" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Система" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Тормоза1" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Все параметры" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="КВУ_ТТС Сборная солянка" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="КВУ_ТТС Рули" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="КВУ_ТТС Инвертор" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="КВУ_ТТС Подвеска" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="КВУ_ТТС АБС" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="КВУ_ТТС Система" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="КВУ_ТТС Тормоза1" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="КВУ_ТТС Все параметры" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Инвертор_МЭИ Параметры" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Инвертор_МЭИ Настройка Двигатель" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Инвертор_МЭИ Настройка Модели" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Инвертор_МЭИ Инвертор МЭИ" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="nodes" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Рулевая_перед_Томск Все параметры" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Рулевая_зад_Томск Все параметры" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="КВУ_Цикл+ Все параметры" sheetId="16" state="visible" r:id="rId17"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="580">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -1140,17 +1148,645 @@
   </si>
   <si>
     <t xml:space="preserve">0x21300A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Непосредственно МЭИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Время работы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сек</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Состояние </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ошибки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Напряжение ЗПТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потребляемый ток</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ток обмотки возбуждения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ток статора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ток фазы А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ток фазы В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ток фазы С</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ток Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x20000a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ток Iq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x20000b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Температура фазы А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x20000c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Температура фазы В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x20000d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Температура фазы С</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x20000e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Температура воздуха</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x20000f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Температура статора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Температура ОВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gamma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Скорость мотора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">об/мин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Момент</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мощность механическая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мощность электрическая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имя устройства</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x100800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASCII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Версия ПО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5FFF00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Версия сборки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5FFF01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Управление — первый байт 0х20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Высокое напряжение вкл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Высокое напряжение выкл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сброс устройства</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Калибровка ДПР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инвертировать вращение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сброс ошибок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x200205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Задать скорость мотора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Изменяемые параметры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Двигатель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уставка защиты от перегрева двигателя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уставка защиты от перегрева обмотки возбуждения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Температура включения вентилятора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Температура выключения вентилятора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Модель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тип управляющего задания</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент усиления пропорциональной составляющей регулятора скорости</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент усиления интегрирующей составляющей регулятора скорости</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент усиления пропорциональной составляющей регулятора тока Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент усиления интегрирующей составляющей регулятора тока Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент усиления пропорциональной составляющей регулятора тока Iq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент усиления интегрирующей составляющей регулятора тока Iq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент усиления пропорциональной составляющей регулятора тока возбуждения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент усиления интегрирующей составляющей регулятора тока возбуждения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимальный ток двигателя в двигательном режиме</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимальный ток двигателя в режиме торможения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x21010a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимальный ток возбуждения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x21010b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимальный момент в положительном направлении</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x21010c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимальный момент в отрицательном направлении</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x21010d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимальная скорость</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x21010e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">об/ мин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент усиления пропорциональной составляющей регулятора ослабления поля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x21010f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэффициент усиления интегрирующей составляющей регулятора ослабления поля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ограничение выхода регулятора ослабления поля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инвертор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уставка защиты от понижения напряжения в ЗПТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уставка защиты от повышения напряжения в ЗПТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уставка защиты от превышения фазного тока</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уставка защиты от превышения тока возбуждения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уставка защиты от перегрева ключей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уставка защиты от перегрева инвертора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контакторы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Напряжение срабатывания основного контактора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимальное время ожидания нарастания напряжения в ЗПТ до уровня срабатывания основного контактора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Время выдержки от срабатывания основного контактора до отключения зарядного контактора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пороговое напряжение шины постоянного тока при отключении</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Время ожидания снижения напряжения до порогового уровня при отключении</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x210503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">req_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ans_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alive_mes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КВУ_Цикл+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x1850460E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x00000594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANOpen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КВУ_ТТС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x00000603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x00000583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инвертор_МЭИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x00000601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x00000581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инвертор_Цикл+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рулевая_перед_Томск</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x000004F5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x000004F7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODBUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рулевая_зад_Томск</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x000004F6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x000004F8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                           Все параметры старого кву                                                                                                      но это неточно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скорость ПП колеса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x520103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скорость ПЛ колеса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x520105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скорость ЗП колеса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x520107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скорость ЗЛ колеса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x520109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">заданный момент двигателя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5b110b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">реализованный момент двигателя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5b110c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ток Фазной Обмотки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5b110f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ток Обмотки Возбуждения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5b1110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">температура тягового двигателя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5b1113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°С</t>
+  </si>
+  <si>
+    <t xml:space="preserve">температура инвертора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5b1114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скорость двигателя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5b111A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мощность двигателя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5b111c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">положение рейки перед</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5b2106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ток рейки перед</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5b2107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">температура рейки перед</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5b2108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">положение рейки зад</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5b2206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ток рейки зад</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5b2207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">температура рейки зад</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5b2208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">напряжение ТАБ высокое </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5b2602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ток батареи ТАБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x5b2603</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1184,8 +1820,43 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <name val="Tahoma"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1195,16 +1866,56 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE7E6E6"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFE7E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFD7"/>
+        <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -1233,7 +1944,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1246,16 +1957,84 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="1" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1270,7 +2049,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFE7E6E6"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -1287,12 +2066,12 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFFFFFD7"/>
+      <rgbColor rgb="FFE7E6E6"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1337,19 +2116,19 @@
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1387,7 +2166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1405,7 +2184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1423,7 +2202,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1441,63 +2220,63 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="0" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="0" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="0" t="s">
         <v>31</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="0" t="s">
         <v>31</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>34</v>
       </c>
@@ -1508,7 +2287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>36</v>
       </c>
@@ -1519,7 +2298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>38</v>
       </c>
@@ -1530,7 +2309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>40</v>
       </c>
@@ -1552,6 +2331,1651 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="41.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="17" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="17" width="5.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="17" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="17" width="5.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="17" width="10.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="17" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="17" width="6.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="17" width="5.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="17" width="9.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="17" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>512</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
+      <c r="J5" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
+      <c r="J6" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="37.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="37.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
+      <c r="I18" s="0"/>
+      <c r="J18" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.54"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="J3" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="J4" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="J5" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="J6" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="J7" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="J8" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="J9" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="J10" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="J17" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="J18" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.54"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E43"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.09"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.73"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+    </row>
+    <row r="2" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>186413.511111111</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>186413.511111111</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>186413.511111111</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>186413.511111111</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>167772.16</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>167772.16</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>25811.1015384615</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>479349.028571429</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>838860.8</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>838860.8</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>2097.152</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>16777216</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>31068.9185185185</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>83886.08</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -1559,17 +3983,17 @@
   </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1607,63 +4031,63 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="0" t="s">
         <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="0" t="s">
         <v>26</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="0" t="s">
         <v>31</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="0" t="s">
         <v>31</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>42</v>
       </c>
@@ -1674,7 +4098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>44</v>
       </c>
@@ -1703,21 +4127,21 @@
   </sheetPr>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1755,7 +4179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
@@ -1765,14 +4189,14 @@
       <c r="D2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="0" t="s">
         <v>48</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1790,7 +4214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1808,7 +4232,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1826,7 +4250,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
@@ -1836,14 +4260,14 @@
       <c r="E6" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="0" t="s">
         <v>51</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>52</v>
       </c>
@@ -1853,14 +4277,14 @@
       <c r="E7" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="0" t="s">
         <v>51</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>54</v>
       </c>
@@ -1870,14 +4294,14 @@
       <c r="D8" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>57</v>
       </c>
@@ -1887,7 +4311,7 @@
       <c r="D9" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="0" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -1912,21 +4336,21 @@
   </sheetPr>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1964,7 +4388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>34</v>
       </c>
@@ -1975,7 +4399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>36</v>
       </c>
@@ -1986,7 +4410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>38</v>
       </c>
@@ -1997,7 +4421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>40</v>
       </c>
@@ -2008,7 +4432,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>59</v>
       </c>
@@ -2022,7 +4446,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>61</v>
       </c>
@@ -2036,7 +4460,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>63</v>
       </c>
@@ -2050,7 +4474,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>65</v>
       </c>
@@ -2082,28 +4506,28 @@
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2141,7 +4565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>67</v>
       </c>
@@ -2152,7 +4576,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>69</v>
       </c>
@@ -2163,7 +4587,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>71</v>
       </c>
@@ -2177,7 +4601,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>74</v>
       </c>
@@ -2188,7 +4612,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>76</v>
       </c>
@@ -2199,7 +4623,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>78</v>
       </c>
@@ -2210,7 +4634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>80</v>
       </c>
@@ -2221,7 +4645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>82</v>
       </c>
@@ -2232,7 +4656,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>84</v>
       </c>
@@ -2243,7 +4667,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>86</v>
       </c>
@@ -2257,7 +4681,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>88</v>
       </c>
@@ -2286,28 +4710,28 @@
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2345,7 +4769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>90</v>
       </c>
@@ -2362,7 +4786,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>92</v>
       </c>
@@ -2379,7 +4803,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>94</v>
       </c>
@@ -2396,7 +4820,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>57</v>
       </c>
@@ -2413,7 +4837,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>96</v>
       </c>
@@ -2430,7 +4854,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>98</v>
       </c>
@@ -2447,7 +4871,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>100</v>
       </c>
@@ -2461,7 +4885,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>103</v>
       </c>
@@ -2472,7 +4896,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>105</v>
       </c>
@@ -2483,7 +4907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>107</v>
       </c>
@@ -2494,7 +4918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>109</v>
       </c>
@@ -2523,28 +4947,28 @@
   </sheetPr>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2582,7 +5006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>111</v>
       </c>
@@ -2600,7 +5024,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>113</v>
       </c>
@@ -2618,7 +5042,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>115</v>
       </c>
@@ -2632,7 +5056,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>118</v>
       </c>
@@ -2646,7 +5070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>120</v>
       </c>
@@ -2660,7 +5084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>122</v>
       </c>
@@ -2674,7 +5098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>124</v>
       </c>
@@ -2688,7 +5112,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>126</v>
       </c>
@@ -2702,7 +5126,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>128</v>
       </c>
@@ -2716,7 +5140,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>130</v>
       </c>
@@ -2730,7 +5154,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>132</v>
       </c>
@@ -2744,7 +5168,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>134</v>
       </c>
@@ -2776,50 +5200,50 @@
   </sheetPr>
   <dimension ref="A1:J171"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B82" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J118" activeCellId="0" sqref="J118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>67</v>
       </c>
@@ -2830,7 +5254,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>69</v>
       </c>
@@ -2841,7 +5265,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>71</v>
       </c>
@@ -2852,7 +5276,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>74</v>
       </c>
@@ -2863,7 +5287,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>76</v>
       </c>
@@ -2874,7 +5298,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>78</v>
       </c>
@@ -2885,7 +5309,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>80</v>
       </c>
@@ -2896,7 +5320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>82</v>
       </c>
@@ -2907,7 +5331,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>84</v>
       </c>
@@ -2918,7 +5342,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>86</v>
       </c>
@@ -2929,7 +5353,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>88</v>
       </c>
@@ -2940,7 +5364,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>139</v>
       </c>
@@ -2951,7 +5375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>141</v>
       </c>
@@ -2962,7 +5386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>143</v>
       </c>
@@ -2973,7 +5397,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>145</v>
       </c>
@@ -2984,7 +5408,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>147</v>
       </c>
@@ -2995,7 +5419,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>149</v>
       </c>
@@ -3006,7 +5430,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>151</v>
       </c>
@@ -3017,7 +5441,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>153</v>
       </c>
@@ -3028,7 +5452,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>155</v>
       </c>
@@ -3039,7 +5463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>157</v>
       </c>
@@ -3050,7 +5474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>111</v>
       </c>
@@ -3061,7 +5485,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>113</v>
       </c>
@@ -3072,7 +5496,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>115</v>
       </c>
@@ -3083,7 +5507,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>118</v>
       </c>
@@ -3094,7 +5518,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>120</v>
       </c>
@@ -3105,7 +5529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>122</v>
       </c>
@@ -3116,7 +5540,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>124</v>
       </c>
@@ -3127,7 +5551,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>126</v>
       </c>
@@ -3138,7 +5562,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>128</v>
       </c>
@@ -3149,7 +5573,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>130</v>
       </c>
@@ -3160,7 +5584,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>132</v>
       </c>
@@ -3171,7 +5595,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>134</v>
       </c>
@@ -3182,7 +5606,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>159</v>
       </c>
@@ -3193,7 +5617,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>161</v>
       </c>
@@ -3204,7 +5628,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>163</v>
       </c>
@@ -3215,7 +5639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>165</v>
       </c>
@@ -3226,7 +5650,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>167</v>
       </c>
@@ -3237,7 +5661,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>169</v>
       </c>
@@ -3248,7 +5672,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>171</v>
       </c>
@@ -3259,7 +5683,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>173</v>
       </c>
@@ -3270,7 +5694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>175</v>
       </c>
@@ -3281,7 +5705,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>177</v>
       </c>
@@ -3292,7 +5716,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>179</v>
       </c>
@@ -3303,7 +5727,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>181</v>
       </c>
@@ -3314,7 +5738,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>183</v>
       </c>
@@ -3325,7 +5749,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>185</v>
       </c>
@@ -3336,7 +5760,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>187</v>
       </c>
@@ -3347,7 +5771,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>189</v>
       </c>
@@ -3358,7 +5782,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>191</v>
       </c>
@@ -3369,7 +5793,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>193</v>
       </c>
@@ -3380,7 +5804,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>195</v>
       </c>
@@ -3391,7 +5815,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>197</v>
       </c>
@@ -3402,7 +5826,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>199</v>
       </c>
@@ -3413,7 +5837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>201</v>
       </c>
@@ -3424,7 +5848,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>204</v>
       </c>
@@ -3435,7 +5859,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>206</v>
       </c>
@@ -3446,7 +5870,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>208</v>
       </c>
@@ -3457,7 +5881,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>210</v>
       </c>
@@ -3468,7 +5892,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>212</v>
       </c>
@@ -3479,7 +5903,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>214</v>
       </c>
@@ -3490,7 +5914,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>216</v>
       </c>
@@ -3501,7 +5925,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>218</v>
       </c>
@@ -3512,7 +5936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>220</v>
       </c>
@@ -3523,7 +5947,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>222</v>
       </c>
@@ -3534,7 +5958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>224</v>
       </c>
@@ -3545,7 +5969,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>226</v>
       </c>
@@ -3556,7 +5980,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>228</v>
       </c>
@@ -3567,7 +5991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>230</v>
       </c>
@@ -3578,7 +6002,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>232</v>
       </c>
@@ -3589,7 +6013,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>234</v>
       </c>
@@ -3600,7 +6024,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>236</v>
       </c>
@@ -3611,7 +6035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>238</v>
       </c>
@@ -3622,7 +6046,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>240</v>
       </c>
@@ -3633,7 +6057,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>242</v>
       </c>
@@ -3644,7 +6068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>244</v>
       </c>
@@ -3655,7 +6079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>246</v>
       </c>
@@ -3666,7 +6090,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>16</v>
       </c>
@@ -3677,7 +6101,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>248</v>
       </c>
@@ -3688,7 +6112,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>250</v>
       </c>
@@ -3699,7 +6123,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>252</v>
       </c>
@@ -3710,7 +6134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>254</v>
       </c>
@@ -3721,7 +6145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>52</v>
       </c>
@@ -3732,7 +6156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>257</v>
       </c>
@@ -3743,7 +6167,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>259</v>
       </c>
@@ -3754,7 +6178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>12</v>
       </c>
@@ -3765,7 +6189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>49</v>
       </c>
@@ -3776,7 +6200,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>54</v>
       </c>
@@ -3787,7 +6211,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>261</v>
       </c>
@@ -3798,7 +6222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>263</v>
       </c>
@@ -3809,7 +6233,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>265</v>
       </c>
@@ -3820,7 +6244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>267</v>
       </c>
@@ -3831,7 +6255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>269</v>
       </c>
@@ -3842,7 +6266,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>271</v>
       </c>
@@ -3853,7 +6277,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>273</v>
       </c>
@@ -3864,7 +6288,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>275</v>
       </c>
@@ -3875,7 +6299,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>277</v>
       </c>
@@ -3886,7 +6310,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>46</v>
       </c>
@@ -3897,7 +6321,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>279</v>
       </c>
@@ -3908,7 +6332,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>20</v>
       </c>
@@ -3919,7 +6343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>281</v>
       </c>
@@ -3930,7 +6354,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>283</v>
       </c>
@@ -3941,7 +6365,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>285</v>
       </c>
@@ -3952,7 +6376,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>287</v>
       </c>
@@ -3963,7 +6387,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>289</v>
       </c>
@@ -3974,7 +6398,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>291</v>
       </c>
@@ -3985,7 +6409,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>293</v>
       </c>
@@ -3996,7 +6420,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>295</v>
       </c>
@@ -4007,7 +6431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>297</v>
       </c>
@@ -4018,7 +6442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>299</v>
       </c>
@@ -4029,7 +6453,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>301</v>
       </c>
@@ -4040,7 +6464,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>303</v>
       </c>
@@ -4051,7 +6475,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>305</v>
       </c>
@@ -4062,7 +6486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>307</v>
       </c>
@@ -4073,7 +6497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>309</v>
       </c>
@@ -4084,7 +6508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>311</v>
       </c>
@@ -4095,7 +6519,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>313</v>
       </c>
@@ -4106,7 +6530,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>315</v>
       </c>
@@ -4117,7 +6541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>317</v>
       </c>
@@ -4128,7 +6552,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>319</v>
       </c>
@@ -4139,7 +6563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>321</v>
       </c>
@@ -4150,7 +6574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>24</v>
       </c>
@@ -4161,7 +6585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>27</v>
       </c>
@@ -4172,7 +6596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>29</v>
       </c>
@@ -4183,7 +6607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
         <v>32</v>
       </c>
@@ -4194,7 +6618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>325</v>
       </c>
@@ -4205,7 +6629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
         <v>327</v>
       </c>
@@ -4216,7 +6640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
         <v>329</v>
       </c>
@@ -4227,7 +6651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
         <v>331</v>
       </c>
@@ -4238,7 +6662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>333</v>
       </c>
@@ -4249,7 +6673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>335</v>
       </c>
@@ -4260,7 +6684,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>337</v>
       </c>
@@ -4271,7 +6695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
         <v>339</v>
       </c>
@@ -4282,7 +6706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
         <v>42</v>
       </c>
@@ -4293,7 +6717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
         <v>44</v>
       </c>
@@ -4304,7 +6728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
         <v>341</v>
       </c>
@@ -4315,7 +6739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
         <v>34</v>
       </c>
@@ -4326,7 +6750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
         <v>36</v>
       </c>
@@ -4337,7 +6761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
         <v>38</v>
       </c>
@@ -4348,7 +6772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
         <v>40</v>
       </c>
@@ -4359,7 +6783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
         <v>343</v>
       </c>
@@ -4370,7 +6794,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
         <v>345</v>
       </c>
@@ -4381,7 +6805,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
         <v>347</v>
       </c>
@@ -4392,7 +6816,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
         <v>349</v>
       </c>
@@ -4403,7 +6827,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
         <v>351</v>
       </c>
@@ -4414,7 +6838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
         <v>353</v>
       </c>
@@ -4425,7 +6849,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
         <v>355</v>
       </c>
@@ -4436,7 +6860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
         <v>357</v>
       </c>
@@ -4447,7 +6871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
         <v>359</v>
       </c>
@@ -4458,7 +6882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
         <v>361</v>
       </c>
@@ -4469,7 +6893,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
         <v>59</v>
       </c>
@@ -4480,7 +6904,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>61</v>
       </c>
@@ -4491,7 +6915,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
         <v>63</v>
       </c>
@@ -4502,7 +6926,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>65</v>
       </c>
@@ -4513,7 +6937,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
         <v>363</v>
       </c>
@@ -4524,7 +6948,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
         <v>365</v>
       </c>
@@ -4535,7 +6959,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
         <v>367</v>
       </c>
@@ -4546,7 +6970,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
         <v>369</v>
       </c>
@@ -4557,7 +6981,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
         <v>90</v>
       </c>
@@ -4568,7 +6992,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
         <v>92</v>
       </c>
@@ -4579,7 +7003,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
         <v>94</v>
       </c>
@@ -4590,7 +7014,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
         <v>57</v>
       </c>
@@ -4601,7 +7025,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
         <v>96</v>
       </c>
@@ -4612,7 +7036,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
         <v>98</v>
       </c>
@@ -4623,7 +7047,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
         <v>100</v>
       </c>
@@ -4634,7 +7058,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
         <v>103</v>
       </c>
@@ -4645,7 +7069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
         <v>105</v>
       </c>
@@ -4656,7 +7080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
         <v>107</v>
       </c>
@@ -4667,7 +7091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
         <v>109</v>
       </c>
@@ -4692,4 +7116,1164 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L75"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="45.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.54"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="J43" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="J44" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="J45" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="J46" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="J47" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="J48" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="J49" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="J50" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="J51" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="F58" s="10"/>
+      <c r="J58" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="F59" s="10"/>
+      <c r="J59" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="B70" s="10"/>
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="37.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A36:J36"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FACACC03BC354D4CAE342DF0B523D936" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="acc35f771d010ed54e5385b9c8667819">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="da661f87-4919-47ab-b0bd-98cd15c2abf7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2566fbb5b17fe84ef74dcb1b9d9893e" ns2:_="">
+    <xsd:import namespace="da661f87-4919-47ab-b0bd-98cd15c2abf7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="da661f87-4919-47ab-b0bd-98cd15c2abf7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="11" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="12" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA367026-9BD2-4FC5-9407-03CEBC3D6654}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B069071-5319-4999-95CC-7D7594457929}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD894491-9E43-4E6F-B279-9C0B45285D90}"/>
 </file>
--- a/Tables/table_for_params_new_VMU.xlsx
+++ b/Tables/table_for_params_new_VMU.xlsx
@@ -1585,10 +1585,10 @@
     <t xml:space="preserve">0x210503</t>
   </si>
   <si>
-    <t xml:space="preserve">req_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ans_ID</t>
+    <t xml:space="preserve">req_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ans_id</t>
   </si>
   <si>
     <t xml:space="preserve">protocol</t>
@@ -1597,6 +1597,18 @@
     <t xml:space="preserve">alive_mes</t>
   </si>
   <si>
+    <t xml:space="preserve">КВУ_ТТС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x00000603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x00000583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANOpen</t>
+  </si>
+  <si>
     <t xml:space="preserve">КВУ_Цикл+</t>
   </si>
   <si>
@@ -1604,18 +1616,6 @@
   </si>
   <si>
     <t xml:space="preserve">0x00000594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANOpen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КВУ_ТТС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x00000603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x00000583</t>
   </si>
   <si>
     <t xml:space="preserve">Инвертор_МЭИ</t>
@@ -3400,13 +3400,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.09"/>
@@ -3433,7 +3433,7 @@
       <c r="A2" s="0" t="s">
         <v>520</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="0" t="s">
         <v>521</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -3447,7 +3447,7 @@
       <c r="A3" s="0" t="s">
         <v>524</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="10" t="s">
         <v>525</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -3507,13 +3507,6 @@
         <v>534</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Tables/table_for_params_new_VMU.xlsx
+++ b/Tables/table_for_params_new_VMU.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="КВУ_ТТС Сборная солянка" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,10 +20,11 @@
     <sheet name="Инвертор_МЭИ Настройка Двигатель" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Инвертор_МЭИ Настройка Модели" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="Инвертор_МЭИ Инвертор МЭИ" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="nodes" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Рулевая_перед_Томск Все параметры" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Рулевая_зад_Томск Все параметры" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="КВУ_Цикл+ Все параметры" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="all_nodes" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="nodes" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Рулевая_перед_Томск Все параметры" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="Рулевая_зад_Томск Все параметры" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="КВУ_Цикл+ Все параметры" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1585,6 +1586,42 @@
     <t xml:space="preserve">0x210503</t>
   </si>
   <si>
+    <t xml:space="preserve">Инвертор_Цикл+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANOpen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рулевая_перед_Томск</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x000004F5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x000004F7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODBUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рулевая_зад_Томск</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x000004F6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x000004F8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КВУ_Цикл+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x1850460E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x00000594</t>
+  </si>
+  <si>
     <t xml:space="preserve">req_id</t>
   </si>
   <si>
@@ -1606,18 +1643,6 @@
     <t xml:space="preserve">0x00000583</t>
   </si>
   <si>
-    <t xml:space="preserve">CANOpen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КВУ_Цикл+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x1850460E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x00000594</t>
-  </si>
-  <si>
     <t xml:space="preserve">Инвертор_МЭИ</t>
   </si>
   <si>
@@ -1625,30 +1650,6 @@
   </si>
   <si>
     <t xml:space="preserve">0x00000581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Инвертор_Цикл+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рулевая_перед_Томск</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x000004F5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x000004F7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MODBUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рулевая_зад_Томск</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x000004F6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x000004F8</t>
   </si>
   <si>
     <t xml:space="preserve">                                                           Все параметры старого кву                                                                                                      но это неточно</t>
@@ -2766,7 +2767,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.54"/>
   </cols>
   <sheetData>
@@ -3400,111 +3401,67 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A2:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.13"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>516</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>517</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>519</v>
-      </c>
-    </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>525</v>
+        <v>518</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>519</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>530</v>
+        <v>525</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>527</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>532</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>536</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -3523,14 +3480,66 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.54"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3553,6 +3562,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3569,9 +3581,35 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -3579,10 +3617,11 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4507,7 +4546,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.43"/>
@@ -4711,7 +4750,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.43"/>
@@ -4948,7 +4987,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.43"/>
@@ -7126,7 +7165,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="45.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.14"/>

--- a/Tables/table_for_params_new_VMU.xlsx
+++ b/Tables/table_for_params_new_VMU.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="КВУ_ТТС Сборная солянка" sheetId="1" state="visible" r:id="rId2"/>
@@ -2766,7 +2766,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.54"/>
   </cols>
   <sheetData>
@@ -3056,8 +3056,8 @@
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3402,14 +3402,15 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3530,6 +3531,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3553,6 +3557,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3579,10 +3586,11 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4507,7 +4515,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.43"/>
@@ -4711,7 +4719,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.43"/>
@@ -4948,7 +4956,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.43"/>
@@ -7126,7 +7134,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="45.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.14"/>
